--- a/Data/GRF Templates/TemplateGRFtrot.xlsx
+++ b/Data/GRF Templates/TemplateGRFtrot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Studies\71EquineMusculoskeletalModel\Processed Data\GroundReactionForces\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gsipes/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F854975-A28B-4851-84F0-4DCC4DD2FF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33877353-4CFC-F84A-924D-F7599BFBDA14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2235" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45420" yWindow="-2040" windowWidth="38400" windowHeight="23380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Fx_template</t>
   </si>
@@ -43,15 +43,6 @@
   <si>
     <t>Fz_template</t>
   </si>
-  <si>
-    <t>Px_template</t>
-  </si>
-  <si>
-    <t>Py_template</t>
-  </si>
-  <si>
-    <t>Pz_template</t>
-  </si>
 </sst>
 </file>
 
@@ -60,7 +51,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -92,14 +83,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -118,9 +108,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -158,7 +148,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -264,7 +254,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -406,7 +396,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -416,22 +406,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H734"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="1" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="6" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,18 +431,12 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -462,17 +446,8 @@
       <c r="C2">
         <v>9.3670903421862895E-3</v>
       </c>
-      <c r="D2">
-        <v>1.526036937</v>
-      </c>
-      <c r="E2">
-        <v>1.3843128E-2</v>
-      </c>
-      <c r="F2">
-        <v>-6.2684261000000005E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -482,17 +457,8 @@
       <c r="C3">
         <v>2.4781959621715598E-2</v>
       </c>
-      <c r="D3">
-        <v>1.5261995909999999</v>
-      </c>
-      <c r="E3">
-        <v>1.3456780999999999E-2</v>
-      </c>
-      <c r="F3">
-        <v>-6.2762946E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -502,17 +468,8 @@
       <c r="C4">
         <v>4.0338226955158901E-2</v>
       </c>
-      <c r="D4">
-        <v>1.52632736</v>
-      </c>
-      <c r="E4">
-        <v>1.3053824E-2</v>
-      </c>
-      <c r="F4">
-        <v>-6.2804927999999996E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -522,17 +479,8 @@
       <c r="C5">
         <v>5.6004805516620702E-2</v>
       </c>
-      <c r="D5">
-        <v>1.5264195410000001</v>
-      </c>
-      <c r="E5">
-        <v>1.2647116E-2</v>
-      </c>
-      <c r="F5">
-        <v>-6.2812860999999998E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -542,17 +490,8 @@
       <c r="C6">
         <v>7.1751153327079695E-2</v>
       </c>
-      <c r="D6">
-        <v>1.526476352</v>
-      </c>
-      <c r="E6">
-        <v>1.2249645999999999E-2</v>
-      </c>
-      <c r="F6">
-        <v>-6.2789655E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -562,17 +501,8 @@
       <c r="C7">
         <v>8.7511500537408901E-2</v>
       </c>
-      <c r="D7">
-        <v>1.526498876</v>
-      </c>
-      <c r="E7">
-        <v>1.1874129000000001E-2</v>
-      </c>
-      <c r="F7">
-        <v>-6.2738448000000002E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -582,17 +512,8 @@
       <c r="C8">
         <v>0.10322013452166399</v>
       </c>
-      <c r="D8">
-        <v>1.5264889859999999</v>
-      </c>
-      <c r="E8">
-        <v>1.1532624E-2</v>
-      </c>
-      <c r="F8">
-        <v>-6.2662605999999996E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -602,17 +523,8 @@
       <c r="C9">
         <v>0.118847123996147</v>
       </c>
-      <c r="D9">
-        <v>1.526449234</v>
-      </c>
-      <c r="E9">
-        <v>1.1236127E-2</v>
-      </c>
-      <c r="F9">
-        <v>-6.2565738999999995E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -622,17 +534,8 @@
       <c r="C10">
         <v>0.13434151287795501</v>
       </c>
-      <c r="D10">
-        <v>1.5263827089999999</v>
-      </c>
-      <c r="E10">
-        <v>1.0994138000000001E-2</v>
-      </c>
-      <c r="F10">
-        <v>-6.2451742999999997E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -642,17 +545,8 @@
       <c r="C11">
         <v>0.14958190901048901</v>
       </c>
-      <c r="D11">
-        <v>1.526292856</v>
-      </c>
-      <c r="E11">
-        <v>1.0814193E-2</v>
-      </c>
-      <c r="F11">
-        <v>-6.2324840999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -662,17 +556,8 @@
       <c r="C12">
         <v>0.16459147390865</v>
       </c>
-      <c r="D12">
-        <v>1.52618327</v>
-      </c>
-      <c r="E12">
-        <v>1.0701382000000001E-2</v>
-      </c>
-      <c r="F12">
-        <v>-6.2189643000000003E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -682,17 +567,8 @@
       <c r="C13">
         <v>0.17934434044143799</v>
       </c>
-      <c r="D13">
-        <v>1.52605748</v>
-      </c>
-      <c r="E13">
-        <v>1.0657885000000001E-2</v>
-      </c>
-      <c r="F13">
-        <v>-6.2051172000000002E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -702,17 +578,8 @@
       <c r="C14">
         <v>0.193754995685161</v>
       </c>
-      <c r="D14">
-        <v>1.5259187599999999</v>
-      </c>
-      <c r="E14">
-        <v>1.0682587E-2</v>
-      </c>
-      <c r="F14">
-        <v>-6.1914865999999999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -722,17 +589,8 @@
       <c r="C15">
         <v>0.207703392169268</v>
       </c>
-      <c r="D15">
-        <v>1.5257699769999999</v>
-      </c>
-      <c r="E15">
-        <v>1.0770829000000001E-2</v>
-      </c>
-      <c r="F15">
-        <v>-6.1786511000000002E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -742,17 +600,8 @@
       <c r="C16">
         <v>0.22127366162522799</v>
       </c>
-      <c r="D16">
-        <v>1.525613508</v>
-      </c>
-      <c r="E16">
-        <v>1.0914363E-2</v>
-      </c>
-      <c r="F16">
-        <v>-6.1672089999999999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -762,17 +611,8 @@
       <c r="C17">
         <v>0.234446266454406</v>
       </c>
-      <c r="D17">
-        <v>1.525451243</v>
-      </c>
-      <c r="E17">
-        <v>1.1101556E-2</v>
-      </c>
-      <c r="F17">
-        <v>-6.1577562000000002E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>0</v>
       </c>
@@ -782,17 +622,8 @@
       <c r="C18">
         <v>0.247094752027637</v>
       </c>
-      <c r="D18">
-        <v>1.5252846550000001</v>
-      </c>
-      <c r="E18">
-        <v>1.1317878999999999E-2</v>
-      </c>
-      <c r="F18">
-        <v>-6.1508552000000001E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -802,17 +633,8 @@
       <c r="C19">
         <v>0.25914735388651799</v>
       </c>
-      <c r="D19">
-        <v>1.5251149420000001</v>
-      </c>
-      <c r="E19">
-        <v>1.1546656000000001E-2</v>
-      </c>
-      <c r="F19">
-        <v>-6.1469992000000001E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -822,17 +644,8 @@
       <c r="C20">
         <v>0.270719104974601</v>
       </c>
-      <c r="D20">
-        <v>1.5249431899999999</v>
-      </c>
-      <c r="E20">
-        <v>1.1770047E-2</v>
-      </c>
-      <c r="F20">
-        <v>-6.1465734000000001E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -842,17 +655,8 @@
       <c r="C21">
         <v>0.28179839098811699</v>
       </c>
-      <c r="D21">
-        <v>1.5247705359999999</v>
-      </c>
-      <c r="E21">
-        <v>1.1970208E-2</v>
-      </c>
-      <c r="F21">
-        <v>-6.1498171999999997E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -862,17 +666,8 @@
       <c r="C22">
         <v>0.29222138366324302</v>
       </c>
-      <c r="D22">
-        <v>1.524598296</v>
-      </c>
-      <c r="E22">
-        <v>1.2130525E-2</v>
-      </c>
-      <c r="F22">
-        <v>-6.1567918999999999E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -882,17 +677,8 @@
       <c r="C23">
         <v>0.30199587938450201</v>
       </c>
-      <c r="D23">
-        <v>1.524428039</v>
-      </c>
-      <c r="E23">
-        <v>1.2236844E-2</v>
-      </c>
-      <c r="F23">
-        <v>-6.1673556999999997E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -902,17 +688,8 @@
       <c r="C24">
         <v>0.31124201636228399</v>
       </c>
-      <c r="D24">
-        <v>1.5242616010000001</v>
-      </c>
-      <c r="E24">
-        <v>1.2278598999999999E-2</v>
-      </c>
-      <c r="F24">
-        <v>-6.1811497999999999E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -922,17 +699,8 @@
       <c r="C25">
         <v>0.31995792118348299</v>
       </c>
-      <c r="D25">
-        <v>1.5241010719999999</v>
-      </c>
-      <c r="E25">
-        <v>1.2249725E-2</v>
-      </c>
-      <c r="F25">
-        <v>-6.1975967999999999E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -942,17 +710,8 @@
       <c r="C26">
         <v>0.327960210794498</v>
       </c>
-      <c r="D26">
-        <v>1.5239487679999999</v>
-      </c>
-      <c r="E26">
-        <v>1.2149289000000001E-2</v>
-      </c>
-      <c r="F26">
-        <v>-6.2159132999999998E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -962,17 +721,8 @@
       <c r="C27">
         <v>0.33534823104207301</v>
       </c>
-      <c r="D27">
-        <v>1.5238072009999999</v>
-      </c>
-      <c r="E27">
-        <v>1.1981755E-2</v>
-      </c>
-      <c r="F27">
-        <v>-6.2351374000000001E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>0</v>
       </c>
@@ -982,17 +732,8 @@
       <c r="C28">
         <v>0.342228046207666</v>
       </c>
-      <c r="D28">
-        <v>1.5236790659999999</v>
-      </c>
-      <c r="E28">
-        <v>1.1756819E-2</v>
-      </c>
-      <c r="F28">
-        <v>-6.2541737E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>0</v>
       </c>
@@ -1002,17 +743,8 @@
       <c r="C29">
         <v>0.34860931247173199</v>
       </c>
-      <c r="D29">
-        <v>1.523567219</v>
-      </c>
-      <c r="E29">
-        <v>1.1488780000000001E-2</v>
-      </c>
-      <c r="F29">
-        <v>-6.2718570000000001E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>0</v>
       </c>
@@ -1022,17 +754,8 @@
       <c r="C30">
         <v>0.35432309550398999</v>
       </c>
-      <c r="D30">
-        <v>1.523474631</v>
-      </c>
-      <c r="E30">
-        <v>1.1195455999999999E-2</v>
-      </c>
-      <c r="F30">
-        <v>-6.2870328000000003E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>0</v>
       </c>
@@ -1042,17 +765,8 @@
       <c r="C31">
         <v>0.35954388830734502</v>
       </c>
-      <c r="D31">
-        <v>1.5234042919999999</v>
-      </c>
-      <c r="E31">
-        <v>1.0896711999999999E-2</v>
-      </c>
-      <c r="F31">
-        <v>-6.2986507999999997E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>0</v>
       </c>
@@ -1062,17 +776,8 @@
       <c r="C32">
         <v>0.36435211300275899</v>
       </c>
-      <c r="D32">
-        <v>1.5233590589999999</v>
-      </c>
-      <c r="E32">
-        <v>1.0612709E-2</v>
-      </c>
-      <c r="F32">
-        <v>-6.3058656000000005E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>0</v>
       </c>
@@ -1082,17 +787,8 @@
       <c r="C33">
         <v>0.36876917030900702</v>
       </c>
-      <c r="D33">
-        <v>1.5233414350000001</v>
-      </c>
-      <c r="E33">
-        <v>1.0362059E-2</v>
-      </c>
-      <c r="F33">
-        <v>-6.3081324999999994E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>0</v>
       </c>
@@ -1102,17 +798,8 @@
       <c r="C34">
         <v>0.37268506910892801</v>
       </c>
-      <c r="D34">
-        <v>1.5233532860000001</v>
-      </c>
-      <c r="E34">
-        <v>1.0160066000000001E-2</v>
-      </c>
-      <c r="F34">
-        <v>-6.3052886000000002E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>0</v>
       </c>
@@ -1122,17 +809,8 @@
       <c r="C35">
         <v>0.37629928744646901</v>
       </c>
-      <c r="D35">
-        <v>1.5233955400000001</v>
-      </c>
-      <c r="E35">
-        <v>1.0017269000000001E-2</v>
-      </c>
-      <c r="F35">
-        <v>-6.2976070999999995E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>0</v>
       </c>
@@ -1142,17 +820,8 @@
       <c r="C36">
         <v>0.37966515510823701</v>
       </c>
-      <c r="D36">
-        <v>1.5234678880000001</v>
-      </c>
-      <c r="E36">
-        <v>9.9384139999999996E-3</v>
-      </c>
-      <c r="F36">
-        <v>-6.2858151000000001E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>0</v>
       </c>
@@ -1162,17 +831,8 @@
       <c r="C37">
         <v>0.38281332451873901</v>
       </c>
-      <c r="D37">
-        <v>1.523568531</v>
-      </c>
-      <c r="E37">
-        <v>9.9219870000000002E-3</v>
-      </c>
-      <c r="F37">
-        <v>-6.2710681000000004E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>0</v>
       </c>
@@ -1182,17 +842,8 @@
       <c r="C38">
         <v>0.38573520798191901</v>
       </c>
-      <c r="D38">
-        <v>1.52369402</v>
-      </c>
-      <c r="E38">
-        <v>9.960343E-3</v>
-      </c>
-      <c r="F38">
-        <v>-6.2548796000000004E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>0</v>
       </c>
@@ -1202,17 +853,8 @@
       <c r="C39">
         <v>0.38858028538976003</v>
       </c>
-      <c r="D39">
-        <v>1.523839197</v>
-      </c>
-      <c r="E39">
-        <v>1.0040426999999999E-2</v>
-      </c>
-      <c r="F39">
-        <v>-6.2390095E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>0</v>
       </c>
@@ -1222,17 +864,8 @@
       <c r="C40">
         <v>0.39138436184299602</v>
       </c>
-      <c r="D40">
-        <v>1.5239972470000001</v>
-      </c>
-      <c r="E40">
-        <v>1.0144993999999999E-2</v>
-      </c>
-      <c r="F40">
-        <v>-6.2253192999999998E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>0</v>
       </c>
@@ -1242,17 +875,8 @@
       <c r="C41">
         <v>0.39418576563192698</v>
       </c>
-      <c r="D41">
-        <v>1.5241598439999999</v>
-      </c>
-      <c r="E41">
-        <v>1.0254226E-2</v>
-      </c>
-      <c r="F41">
-        <v>-6.2156100999999998E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>0</v>
       </c>
@@ -1262,17 +886,8 @@
       <c r="C42">
         <v>0.397091606536084</v>
       </c>
-      <c r="D42">
-        <v>1.52431739</v>
-      </c>
-      <c r="E42">
-        <v>1.0347574E-2</v>
-      </c>
-      <c r="F42">
-        <v>-6.2114600999999998E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>0</v>
       </c>
@@ -1282,17 +897,8 @@
       <c r="C43">
         <v>0.40013536829052998</v>
       </c>
-      <c r="D43">
-        <v>1.524459322</v>
-      </c>
-      <c r="E43">
-        <v>1.0405653000000001E-2</v>
-      </c>
-      <c r="F43">
-        <v>-6.2140791000000001E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>0</v>
       </c>
@@ -1302,17 +908,8 @@
       <c r="C44">
         <v>0.40334870824513902</v>
       </c>
-      <c r="D44">
-        <v>1.524574498</v>
-      </c>
-      <c r="E44">
-        <v>1.0412039E-2</v>
-      </c>
-      <c r="F44">
-        <v>-6.2241958E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>0</v>
       </c>
@@ -1322,17 +919,8 @@
       <c r="C45">
         <v>0.40679297321248298</v>
       </c>
-      <c r="D45">
-        <v>1.524651647</v>
-      </c>
-      <c r="E45">
-        <v>1.0354814E-2</v>
-      </c>
-      <c r="F45">
-        <v>-6.2419891999999998E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>0</v>
       </c>
@@ -1342,17 +930,8 @@
       <c r="C46">
         <v>0.41061970218960298</v>
       </c>
-      <c r="D46">
-        <v>1.5246798800000001</v>
-      </c>
-      <c r="E46">
-        <v>1.0227702999999999E-2</v>
-      </c>
-      <c r="F46">
-        <v>-6.2670668999999998E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>0</v>
       </c>
@@ -1362,17 +941,8 @@
       <c r="C47">
         <v>0.41476359588207401</v>
       </c>
-      <c r="D47">
-        <v>1.524649242</v>
-      </c>
-      <c r="E47">
-        <v>1.0030710999999999E-2</v>
-      </c>
-      <c r="F47">
-        <v>-6.2984927999999996E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>0</v>
       </c>
@@ -1382,17 +952,8 @@
       <c r="C48">
         <v>0.41924684474059798</v>
       </c>
-      <c r="D48">
-        <v>1.524551282</v>
-      </c>
-      <c r="E48">
-        <v>9.7701639999999996E-3</v>
-      </c>
-      <c r="F48">
-        <v>-6.3348590999999996E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>0</v>
       </c>
@@ -1402,17 +963,8 @@
       <c r="C49">
         <v>0.42415958318095798</v>
       </c>
-      <c r="D49">
-        <v>1.5243795950000001</v>
-      </c>
-      <c r="E49">
-        <v>9.4581379999999996E-3</v>
-      </c>
-      <c r="F49">
-        <v>-6.3743968999999998E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>0</v>
       </c>
@@ -1422,17 +974,8 @@
       <c r="C50">
         <v>0.42962218543067399</v>
       </c>
-      <c r="D50">
-        <v>1.5241302889999999</v>
-      </c>
-      <c r="E50">
-        <v>9.1113040000000006E-3</v>
-      </c>
-      <c r="F50">
-        <v>-6.4151149000000005E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>0</v>
       </c>
@@ -1442,17 +985,8 @@
       <c r="C51">
         <v>0.43550931016350097</v>
       </c>
-      <c r="D51">
-        <v>1.52380231</v>
-      </c>
-      <c r="E51">
-        <v>8.7492760000000003E-3</v>
-      </c>
-      <c r="F51">
-        <v>-6.4549552999999996E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>0</v>
       </c>
@@ -1462,17 +996,8 @@
       <c r="C52">
         <v>0.44182946044048899</v>
       </c>
-      <c r="D52">
-        <v>1.523397594</v>
-      </c>
-      <c r="E52">
-        <v>8.392633E-3</v>
-      </c>
-      <c r="F52">
-        <v>-6.4919512999999998E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>0</v>
       </c>
@@ -1482,17 +1007,8 @@
       <c r="C53">
         <v>0.448692011639167</v>
       </c>
-      <c r="D53">
-        <v>1.522920982</v>
-      </c>
-      <c r="E53">
-        <v>8.0608120000000005E-3</v>
-      </c>
-      <c r="F53">
-        <v>-6.5243727000000001E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>0</v>
       </c>
@@ -1502,17 +1018,8 @@
       <c r="C54">
         <v>0.45613642539277399</v>
       </c>
-      <c r="D54">
-        <v>1.522379911</v>
-      </c>
-      <c r="E54">
-        <v>7.7701280000000003E-3</v>
-      </c>
-      <c r="F54">
-        <v>-6.5508471999999998E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>0</v>
       </c>
@@ -1522,17 +1029,8 @@
       <c r="C55">
         <v>0.464021000360195</v>
       </c>
-      <c r="D55">
-        <v>1.5217838969999999</v>
-      </c>
-      <c r="E55">
-        <v>7.5321529999999998E-3</v>
-      </c>
-      <c r="F55">
-        <v>-6.5704473999999999E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>0</v>
       </c>
@@ -1542,17 +1040,8 @@
       <c r="C56">
         <v>0.47233958205448001</v>
       </c>
-      <c r="D56">
-        <v>1.5211438770000001</v>
-      </c>
-      <c r="E56">
-        <v>7.3526590000000001E-3</v>
-      </c>
-      <c r="F56">
-        <v>-6.5827393999999997E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>0</v>
       </c>
@@ -1562,17 +1051,8 @@
       <c r="C57">
         <v>0.481197423022731</v>
       </c>
-      <c r="D57">
-        <v>1.520471498</v>
-      </c>
-      <c r="E57">
-        <v>7.2312499999999998E-3</v>
-      </c>
-      <c r="F57">
-        <v>-6.5877912999999996E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>0</v>
       </c>
@@ -1582,17 +1062,8 @@
       <c r="C58">
         <v>0.490544922859314</v>
       </c>
-      <c r="D58">
-        <v>1.519778442</v>
-      </c>
-      <c r="E58">
-        <v>7.1617249999999999E-3</v>
-      </c>
-      <c r="F58">
-        <v>-6.5861426000000001E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>0</v>
       </c>
@@ -1602,17 +1073,8 @@
       <c r="C59">
         <v>0.50025938543611304</v>
       </c>
-      <c r="D59">
-        <v>1.5190758719999999</v>
-      </c>
-      <c r="E59">
-        <v>7.133103E-3</v>
-      </c>
-      <c r="F59">
-        <v>-6.5787388000000002E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>0</v>
       </c>
@@ -1622,17 +1084,8 @@
       <c r="C60">
         <v>0.51032243205372496</v>
       </c>
-      <c r="D60">
-        <v>1.5183740320000001</v>
-      </c>
-      <c r="E60">
-        <v>7.1311739999999997E-3</v>
-      </c>
-      <c r="F60">
-        <v>-6.5668372000000003E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>0</v>
       </c>
@@ -1642,17 +1095,8 @@
       <c r="C61">
         <v>0.52080557751289203</v>
       </c>
-      <c r="D61">
-        <v>1.5176820369999999</v>
-      </c>
-      <c r="E61">
-        <v>7.1403270000000001E-3</v>
-      </c>
-      <c r="F61">
-        <v>-6.5518950000000006E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>0</v>
       </c>
@@ -1662,17 +1106,8 @@
       <c r="C62">
         <v>0.53160261168879896</v>
       </c>
-      <c r="D62">
-        <v>1.517007805</v>
-      </c>
-      <c r="E62">
-        <v>7.1454279999999997E-3</v>
-      </c>
-      <c r="F62">
-        <v>-6.5354482000000005E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>0</v>
       </c>
@@ -1682,17 +1117,8 @@
       <c r="C63">
         <v>0.54262845050407704</v>
       </c>
-      <c r="D63">
-        <v>1.5163581159999999</v>
-      </c>
-      <c r="E63">
-        <v>7.133464E-3</v>
-      </c>
-      <c r="F63">
-        <v>-6.5189946999999998E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>0</v>
       </c>
@@ -1702,17 +1128,8 @@
       <c r="C64">
         <v>0.553857509879918</v>
       </c>
-      <c r="D64">
-        <v>1.515738711</v>
-      </c>
-      <c r="E64">
-        <v>7.0947559999999998E-3</v>
-      </c>
-      <c r="F64">
-        <v>-6.5038894999999999E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>0</v>
       </c>
@@ -1722,17 +1139,8 @@
       <c r="C65">
         <v>0.56530233616421</v>
       </c>
-      <c r="D65">
-        <v>1.515154398</v>
-      </c>
-      <c r="E65">
-        <v>7.0236140000000001E-3</v>
-      </c>
-      <c r="F65">
-        <v>-6.4912605999999998E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>0</v>
       </c>
@@ -1742,17 +1150,8 @@
       <c r="C66">
         <v>0.57685668266392298</v>
       </c>
-      <c r="D66">
-        <v>1.514609128</v>
-      </c>
-      <c r="E66">
-        <v>6.9183969999999997E-3</v>
-      </c>
-      <c r="F66">
-        <v>-6.4819508999999997E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>0</v>
       </c>
@@ -1762,17 +1161,8 @@
       <c r="C67">
         <v>0.58847365998636003</v>
       </c>
-      <c r="D67">
-        <v>1.5141060260000001</v>
-      </c>
-      <c r="E67">
-        <v>6.7810450000000003E-3</v>
-      </c>
-      <c r="F67">
-        <v>-6.4764880999999996E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>0</v>
       </c>
@@ -1782,17 +1172,8 @@
       <c r="C68">
         <v>0.60012658218904902</v>
       </c>
-      <c r="D68">
-        <v>1.513647392</v>
-      </c>
-      <c r="E68">
-        <v>6.6162319999999997E-3</v>
-      </c>
-      <c r="F68">
-        <v>-6.4750814000000004E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>0</v>
       </c>
@@ -1802,17 +1183,8 @@
       <c r="C69">
         <v>0.61175749864518203</v>
       </c>
-      <c r="D69">
-        <v>1.513234687</v>
-      </c>
-      <c r="E69">
-        <v>6.4303190000000003E-3</v>
-      </c>
-      <c r="F69">
-        <v>-6.4776430999999995E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>0</v>
       </c>
@@ -1822,17 +1194,8 @@
       <c r="C70">
         <v>0.62331664670026499</v>
       </c>
-      <c r="D70">
-        <v>1.5128685260000001</v>
-      </c>
-      <c r="E70">
-        <v>6.2303310000000004E-3</v>
-      </c>
-      <c r="F70">
-        <v>-6.4838288999999993E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>0</v>
       </c>
@@ -1842,17 +1205,8 @@
       <c r="C71">
         <v>0.63478309791202803</v>
       </c>
-      <c r="D71">
-        <v>1.5125486889999999</v>
-      </c>
-      <c r="E71">
-        <v>6.0230989999999996E-3</v>
-      </c>
-      <c r="F71">
-        <v>-6.4930897000000001E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>0</v>
       </c>
@@ -1862,17 +1216,8 @@
       <c r="C72">
         <v>0.64613458885180997</v>
       </c>
-      <c r="D72">
-        <v>1.5122741559999999</v>
-      </c>
-      <c r="E72">
-        <v>5.8146990000000004E-3</v>
-      </c>
-      <c r="F72">
-        <v>-6.5047284999999996E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>0</v>
       </c>
@@ -1882,17 +1227,8 @@
       <c r="C73">
         <v>0.65724913200219304</v>
       </c>
-      <c r="D73">
-        <v>1.5120431809999999</v>
-      </c>
-      <c r="E73">
-        <v>5.6102010000000004E-3</v>
-      </c>
-      <c r="F73">
-        <v>-6.5179556999999999E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>0</v>
       </c>
@@ -1902,17 +1238,8 @@
       <c r="C74">
         <v>0.66816838341690798</v>
       </c>
-      <c r="D74">
-        <v>1.5118533940000001</v>
-      </c>
-      <c r="E74">
-        <v>5.4137100000000004E-3</v>
-      </c>
-      <c r="F74">
-        <v>-6.5319378999999997E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>0</v>
       </c>
@@ -1922,17 +1249,8 @@
       <c r="C75">
         <v>0.67888081293097802</v>
       </c>
-      <c r="D75">
-        <v>1.511701966</v>
-      </c>
-      <c r="E75">
-        <v>5.2286249999999998E-3</v>
-      </c>
-      <c r="F75">
-        <v>-6.5458374999999999E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>0</v>
       </c>
@@ -1942,17 +1260,8 @@
       <c r="C76">
         <v>0.68936159353123805</v>
       </c>
-      <c r="D76">
-        <v>1.5115857960000001</v>
-      </c>
-      <c r="E76">
-        <v>5.0580210000000002E-3</v>
-      </c>
-      <c r="F76">
-        <v>-6.5588448999999993E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>0</v>
       </c>
@@ -1962,17 +1271,8 @@
       <c r="C77">
         <v>0.69947891211899205</v>
       </c>
-      <c r="D77">
-        <v>1.5115017209999999</v>
-      </c>
-      <c r="E77">
-        <v>4.9050609999999996E-3</v>
-      </c>
-      <c r="F77">
-        <v>-6.5702020999999999E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>0</v>
       </c>
@@ -1982,17 +1282,8 @@
       <c r="C78">
         <v>0.70933643250441003</v>
       </c>
-      <c r="D78">
-        <v>1.511446726</v>
-      </c>
-      <c r="E78">
-        <v>4.7733530000000001E-3</v>
-      </c>
-      <c r="F78">
-        <v>-6.5792214000000002E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>0</v>
       </c>
@@ -2002,17 +1293,8 @@
       <c r="C79">
         <v>0.71892956693668597</v>
       </c>
-      <c r="D79">
-        <v>1.511418114</v>
-      </c>
-      <c r="E79">
-        <v>4.6672279999999998E-3</v>
-      </c>
-      <c r="F79">
-        <v>-6.5853007000000005E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>0</v>
       </c>
@@ -2022,17 +1304,8 @@
       <c r="C80">
         <v>0.72822574155844999</v>
       </c>
-      <c r="D80">
-        <v>1.511413632</v>
-      </c>
-      <c r="E80">
-        <v>4.5918959999999998E-3</v>
-      </c>
-      <c r="F80">
-        <v>-6.5879363999999996E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>0</v>
       </c>
@@ -2042,17 +1315,8 @@
       <c r="C81">
         <v>0.73713305457117995</v>
       </c>
-      <c r="D81">
-        <v>1.5114315279999999</v>
-      </c>
-      <c r="E81">
-        <v>4.5534800000000004E-3</v>
-      </c>
-      <c r="F81">
-        <v>-6.5867354000000003E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>0</v>
       </c>
@@ -2062,17 +1326,8 @@
       <c r="C82">
         <v>0.74577067358790905</v>
       </c>
-      <c r="D82">
-        <v>1.5114705420000001</v>
-      </c>
-      <c r="E82">
-        <v>4.5589150000000002E-3</v>
-      </c>
-      <c r="F82">
-        <v>-6.5814262999999998E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>0</v>
       </c>
@@ -2082,17 +1337,8 @@
       <c r="C83">
         <v>0.75414191835989897</v>
       </c>
-      <c r="D83">
-        <v>1.5115298230000001</v>
-      </c>
-      <c r="E83">
-        <v>4.6157150000000003E-3</v>
-      </c>
-      <c r="F83">
-        <v>-6.5718689999999996E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>0</v>
       </c>
@@ -2102,17 +1348,8 @@
       <c r="C84">
         <v>0.76221028496985799</v>
       </c>
-      <c r="D84">
-        <v>1.511608778</v>
-      </c>
-      <c r="E84">
-        <v>4.7316099999999998E-3</v>
-      </c>
-      <c r="F84">
-        <v>-6.5580627000000002E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>0</v>
       </c>
@@ -2122,17 +1359,8 @@
       <c r="C85">
         <v>0.76993804730603499</v>
       </c>
-      <c r="D85">
-        <v>1.5117068899999999</v>
-      </c>
-      <c r="E85">
-        <v>4.914074E-3</v>
-      </c>
-      <c r="F85">
-        <v>-6.5401508999999997E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>0</v>
       </c>
@@ -2142,17 +1370,8 @@
       <c r="C86">
         <v>0.77743063638723298</v>
       </c>
-      <c r="D86">
-        <v>1.5118235120000001</v>
-      </c>
-      <c r="E86">
-        <v>5.169758E-3</v>
-      </c>
-      <c r="F86">
-        <v>-6.5184234999999993E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>0</v>
       </c>
@@ -2162,17 +1381,8 @@
       <c r="C87">
         <v>0.784696464226318</v>
       </c>
-      <c r="D87">
-        <v>1.511957674</v>
-      </c>
-      <c r="E87">
-        <v>5.5038609999999996E-3</v>
-      </c>
-      <c r="F87">
-        <v>-6.4933137000000002E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>0</v>
       </c>
@@ -2182,17 +1392,8 @@
       <c r="C88">
         <v>0.79170196227637801</v>
       </c>
-      <c r="D88">
-        <v>1.5121079230000001</v>
-      </c>
-      <c r="E88">
-        <v>5.9194629999999998E-3</v>
-      </c>
-      <c r="F88">
-        <v>-6.4653919000000004E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>0</v>
       </c>
@@ -2202,17 +1403,8 @@
       <c r="C89">
         <v>0.79845396618267195</v>
       </c>
-      <c r="D89">
-        <v>1.512272236</v>
-      </c>
-      <c r="E89">
-        <v>6.4168810000000001E-3</v>
-      </c>
-      <c r="F89">
-        <v>-6.4353546999999997E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>0</v>
       </c>
@@ -2222,17 +1414,8 @@
       <c r="C90">
         <v>0.80502954035182295</v>
       </c>
-      <c r="D90">
-        <v>1.512447997</v>
-      </c>
-      <c r="E90">
-        <v>6.993099E-3</v>
-      </c>
-      <c r="F90">
-        <v>-6.4040090999999993E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>0</v>
       </c>
@@ -2242,17 +1425,8 @@
       <c r="C91">
         <v>0.81143885732422605</v>
       </c>
-      <c r="D91">
-        <v>1.5126320639999999</v>
-      </c>
-      <c r="E91">
-        <v>7.6413419999999998E-3</v>
-      </c>
-      <c r="F91">
-        <v>-6.3722532999999998E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>0</v>
       </c>
@@ -2262,17 +1436,8 @@
       <c r="C92">
         <v>0.81765675699792895</v>
       </c>
-      <c r="D92">
-        <v>1.512820907</v>
-      </c>
-      <c r="E92">
-        <v>8.3508590000000004E-3</v>
-      </c>
-      <c r="F92">
-        <v>-6.3410515000000001E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>0</v>
       </c>
@@ -2282,17 +1447,8 @@
       <c r="C93">
         <v>0.82371291168404603</v>
       </c>
-      <c r="D93">
-        <v>1.5130108019999999</v>
-      </c>
-      <c r="E93">
-        <v>9.1069400000000009E-3</v>
-      </c>
-      <c r="F93">
-        <v>-6.3114049000000005E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>0</v>
       </c>
@@ -2302,17 +1458,8 @@
       <c r="C94">
         <v>0.82965440521502898</v>
       </c>
-      <c r="D94">
-        <v>1.5131980679999999</v>
-      </c>
-      <c r="E94">
-        <v>9.8911969999999991E-3</v>
-      </c>
-      <c r="F94">
-        <v>-6.2843185999999995E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>0</v>
       </c>
@@ -2322,17 +1469,8 @@
       <c r="C95">
         <v>0.83549021978204796</v>
       </c>
-      <c r="D95">
-        <v>1.5133793</v>
-      </c>
-      <c r="E95">
-        <v>1.0682120999999999E-2</v>
-      </c>
-      <c r="F95">
-        <v>-6.2607640000000006E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>0</v>
       </c>
@@ -2342,17 +1480,8 @@
       <c r="C96">
         <v>0.84120445164282898</v>
       </c>
-      <c r="D96">
-        <v>1.513551614</v>
-      </c>
-      <c r="E96">
-        <v>1.1455897E-2</v>
-      </c>
-      <c r="F96">
-        <v>-6.2416391000000002E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>0</v>
       </c>
@@ -2362,17 +1491,8 @@
       <c r="C97">
         <v>0.84682851391312397</v>
       </c>
-      <c r="D97">
-        <v>1.5137128529999999</v>
-      </c>
-      <c r="E97">
-        <v>1.2187468E-2</v>
-      </c>
-      <c r="F97">
-        <v>-6.2277263999999999E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>0</v>
       </c>
@@ -2382,17 +1502,8 @@
       <c r="C98">
         <v>0.85238596019913304</v>
       </c>
-      <c r="D98">
-        <v>1.513861763</v>
-      </c>
-      <c r="E98">
-        <v>1.2851807999999999E-2</v>
-      </c>
-      <c r="F98">
-        <v>-6.2196512000000002E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>0</v>
       </c>
@@ -2402,17 +1513,8 @@
       <c r="C99">
         <v>0.85788262267795801</v>
       </c>
-      <c r="D99">
-        <v>1.513998113</v>
-      </c>
-      <c r="E99">
-        <v>1.3425338E-2</v>
-      </c>
-      <c r="F99">
-        <v>-6.2178428000000001E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>0</v>
       </c>
@@ -2422,17 +1524,8 @@
       <c r="C100">
         <v>0.863307202490741</v>
       </c>
-      <c r="D100">
-        <v>1.5141227349999999</v>
-      </c>
-      <c r="E100">
-        <v>1.3887371000000001E-2</v>
-      </c>
-      <c r="F100">
-        <v>-6.2225017000000001E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>0</v>
       </c>
@@ -2442,17 +1535,8 @@
       <c r="C101">
         <v>0.86868138551943597</v>
       </c>
-      <c r="D101">
-        <v>1.5142374700000001</v>
-      </c>
-      <c r="E101">
-        <v>1.4221493E-2</v>
-      </c>
-      <c r="F101">
-        <v>-6.2335777000000002E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>0</v>
       </c>
@@ -2462,17 +1546,8 @@
       <c r="C102">
         <v>0.87401408012586301</v>
       </c>
-      <c r="D102">
-        <v>1.5143450190000001</v>
-      </c>
-      <c r="E102">
-        <v>1.4416724000000001E-2</v>
-      </c>
-      <c r="F102">
-        <v>-6.2507607000000007E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>0</v>
       </c>
@@ -2482,17 +1557,8 @@
       <c r="C103">
         <v>0.87930723693967805</v>
       </c>
-      <c r="D103">
-        <v>1.514448703</v>
-      </c>
-      <c r="E103">
-        <v>1.4468352E-2</v>
-      </c>
-      <c r="F103">
-        <v>-6.2734873999999996E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>0</v>
       </c>
@@ -2502,17 +1568,8 @@
       <c r="C104">
         <v>0.88454551203919896</v>
       </c>
-      <c r="D104">
-        <v>1.5145521630000001</v>
-      </c>
-      <c r="E104">
-        <v>1.4378350999999999E-2</v>
-      </c>
-      <c r="F104">
-        <v>-6.3009628999999998E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>0</v>
       </c>
@@ -2522,17 +1579,8 @@
       <c r="C105">
         <v>0.88974202659000301</v>
       </c>
-      <c r="D105">
-        <v>1.5146590179999999</v>
-      </c>
-      <c r="E105">
-        <v>1.4155332E-2</v>
-      </c>
-      <c r="F105">
-        <v>-6.3321968000000006E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>0</v>
       </c>
@@ -2542,17 +1590,8 @@
       <c r="C106">
         <v>0.89489810988766405</v>
       </c>
-      <c r="D106">
-        <v>1.514772537</v>
-      </c>
-      <c r="E106">
-        <v>1.381404E-2</v>
-      </c>
-      <c r="F106">
-        <v>-6.3660496999999996E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>0</v>
       </c>
@@ -2562,17 +1601,8 @@
       <c r="C107">
         <v>0.90001221700842704</v>
       </c>
-      <c r="D107">
-        <v>1.5148953519999999</v>
-      </c>
-      <c r="E107">
-        <v>1.3374436E-2</v>
-      </c>
-      <c r="F107">
-        <v>-6.4012875999999996E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>0</v>
       </c>
@@ -2582,17 +1612,8 @@
       <c r="C108">
         <v>0.90505530483390395</v>
       </c>
-      <c r="D108">
-        <v>1.51502925</v>
-      </c>
-      <c r="E108">
-        <v>1.2860470000000001E-2</v>
-      </c>
-      <c r="F108">
-        <v>-6.4366397000000006E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>0</v>
       </c>
@@ -2602,17 +1623,8 @@
       <c r="C109">
         <v>0.91004311117980197</v>
       </c>
-      <c r="D109">
-        <v>1.515175073</v>
-      </c>
-      <c r="E109">
-        <v>1.2298643E-2</v>
-      </c>
-      <c r="F109">
-        <v>-6.4708555000000001E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>0</v>
       </c>
@@ -2622,17 +1634,8 @@
       <c r="C110">
         <v>0.91497269757682897</v>
       </c>
-      <c r="D110">
-        <v>1.515332753</v>
-      </c>
-      <c r="E110">
-        <v>1.1716528E-2</v>
-      </c>
-      <c r="F110">
-        <v>-6.5027571000000006E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>0</v>
       </c>
@@ -2642,17 +1645,8 @@
       <c r="C111">
         <v>0.91983756544877504</v>
       </c>
-      <c r="D111">
-        <v>1.5155014659999999</v>
-      </c>
-      <c r="E111">
-        <v>1.1141363E-2</v>
-      </c>
-      <c r="F111">
-        <v>-6.5312834E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>0</v>
       </c>
@@ -2662,17 +1656,8 @@
       <c r="C112">
         <v>0.92459526265784298</v>
       </c>
-      <c r="D112">
-        <v>1.515679907</v>
-      </c>
-      <c r="E112">
-        <v>1.0598869E-2</v>
-      </c>
-      <c r="F112">
-        <v>-6.5555234000000004E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>0</v>
       </c>
@@ -2682,17 +1667,8 @@
       <c r="C113">
         <v>0.92927157172128605</v>
       </c>
-      <c r="D113">
-        <v>1.5158666489999999</v>
-      </c>
-      <c r="E113">
-        <v>1.0112365999999999E-2</v>
-      </c>
-      <c r="F113">
-        <v>-6.5747360000000005E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>0</v>
       </c>
@@ -2702,17 +1678,8 @@
       <c r="C114">
         <v>0.933861689919258</v>
       </c>
-      <c r="D114">
-        <v>1.5160605570000001</v>
-      </c>
-      <c r="E114">
-        <v>9.7022359999999995E-3</v>
-      </c>
-      <c r="F114">
-        <v>-6.5883572000000001E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>0</v>
       </c>
@@ -2722,17 +1689,8 @@
       <c r="C115">
         <v>0.93835117918799404</v>
       </c>
-      <c r="D115">
-        <v>1.516261192</v>
-      </c>
-      <c r="E115">
-        <v>9.3857320000000008E-3</v>
-      </c>
-      <c r="F115">
-        <v>-6.5959948000000004E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>0</v>
       </c>
@@ -2742,17 +1700,8 @@
       <c r="C116">
         <v>0.94269415420769498</v>
       </c>
-      <c r="D116">
-        <v>1.51646919</v>
-      </c>
-      <c r="E116">
-        <v>9.1770340000000006E-3</v>
-      </c>
-      <c r="F116">
-        <v>-6.5974169999999999E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>0</v>
       </c>
@@ -2762,17 +1711,8 @@
       <c r="C117">
         <v>0.94692614436052702</v>
       </c>
-      <c r="D117">
-        <v>1.5166865700000001</v>
-      </c>
-      <c r="E117">
-        <v>9.0874560000000007E-3</v>
-      </c>
-      <c r="F117">
-        <v>-6.5925361000000002E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>0</v>
       </c>
@@ -2782,17 +1722,8 @@
       <c r="C118">
         <v>0.95104276818240996</v>
       </c>
-      <c r="D118">
-        <v>1.5169169440000001</v>
-      </c>
-      <c r="E118">
-        <v>9.1256710000000001E-3</v>
-      </c>
-      <c r="F118">
-        <v>-6.5813959000000005E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>0</v>
       </c>
@@ -2802,17 +1733,8 @@
       <c r="C119">
         <v>0.95501987854662096</v>
       </c>
-      <c r="D119">
-        <v>1.5171656259999999</v>
-      </c>
-      <c r="E119">
-        <v>9.29783E-3</v>
-      </c>
-      <c r="F119">
-        <v>-6.5641643E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>0</v>
       </c>
@@ -2822,17 +1744,8 @@
       <c r="C120">
         <v>0.958818762516913</v>
       </c>
-      <c r="D120">
-        <v>1.51743962</v>
-      </c>
-      <c r="E120">
-        <v>9.607516E-3</v>
-      </c>
-      <c r="F120">
-        <v>-6.5411330000000004E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>0</v>
       </c>
@@ -2842,17 +1755,8 @@
       <c r="C121">
         <v>0.96248193837840101</v>
       </c>
-      <c r="D121">
-        <v>1.5177474849999999</v>
-      </c>
-      <c r="E121">
-        <v>1.0055522000000001E-2</v>
-      </c>
-      <c r="F121">
-        <v>-6.5127207000000006E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>0</v>
       </c>
@@ -2862,17 +1766,8 @@
       <c r="C122">
         <v>0.96600627665126104</v>
       </c>
-      <c r="D122">
-        <v>1.518099088</v>
-      </c>
-      <c r="E122">
-        <v>1.0639475000000001E-2</v>
-      </c>
-      <c r="F122">
-        <v>-6.4794746E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>0</v>
       </c>
@@ -2882,17 +1777,8 @@
       <c r="C123">
         <v>0.96935741522521901</v>
       </c>
-      <c r="D123">
-        <v>1.5185052539999999</v>
-      </c>
-      <c r="E123">
-        <v>1.1353403E-2</v>
-      </c>
-      <c r="F123">
-        <v>-6.4420621999999997E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>0</v>
       </c>
@@ -2902,17 +1788,8 @@
       <c r="C124">
         <v>0.97251302797177996</v>
       </c>
-      <c r="D124">
-        <v>1.518977368</v>
-      </c>
-      <c r="E124">
-        <v>1.2187326E-2</v>
-      </c>
-      <c r="F124">
-        <v>-6.4012468000000003E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>0</v>
       </c>
@@ -2922,17 +1799,8 @@
       <c r="C125">
         <v>0.97551726549786799</v>
       </c>
-      <c r="D125">
-        <v>1.519526954</v>
-      </c>
-      <c r="E125">
-        <v>1.3126987E-2</v>
-      </c>
-      <c r="F125">
-        <v>-6.3578409000000002E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>0</v>
       </c>
@@ -2942,17 +1810,8 @@
       <c r="C126">
         <v>0.97836857273345401</v>
       </c>
-      <c r="D126">
-        <v>1.5201653079999999</v>
-      </c>
-      <c r="E126">
-        <v>1.4153786999999999E-2</v>
-      </c>
-      <c r="F126">
-        <v>-6.3126355999999995E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>0</v>
       </c>
@@ -2962,17 +1821,8 @@
       <c r="C127">
         <v>0.981023341187094</v>
       </c>
-      <c r="D127">
-        <v>1.5209031989999999</v>
-      </c>
-      <c r="E127">
-        <v>1.524502E-2</v>
-      </c>
-      <c r="F127">
-        <v>-6.2663071000000001E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>0</v>
       </c>
@@ -2982,17 +1832,8 @@
       <c r="C128">
         <v>0.98348060365120804</v>
       </c>
-      <c r="D128">
-        <v>1.5217506970000001</v>
-      </c>
-      <c r="E128">
-        <v>1.6374412000000001E-2</v>
-      </c>
-      <c r="F128">
-        <v>-6.2193058000000002E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>0</v>
       </c>
@@ -3002,17 +1843,8 @@
       <c r="C129">
         <v>0.98578077537482101</v>
       </c>
-      <c r="D129">
-        <v>1.522717125</v>
-      </c>
-      <c r="E129">
-        <v>1.7513008E-2</v>
-      </c>
-      <c r="F129">
-        <v>-6.1717367000000002E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>0</v>
       </c>
@@ -3022,17 +1854,8 @@
       <c r="C130">
         <v>0.98792375996827497</v>
       </c>
-      <c r="D130">
-        <v>1.523811153</v>
-      </c>
-      <c r="E130">
-        <v>1.8630383E-2</v>
-      </c>
-      <c r="F130">
-        <v>-6.1232437000000001E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>0</v>
       </c>
@@ -3042,17 +1865,8 @@
       <c r="C131">
         <v>0.98985865371523496</v>
       </c>
-      <c r="D131">
-        <v>1.5250410249999999</v>
-      </c>
-      <c r="E131">
-        <v>1.9696148E-2</v>
-      </c>
-      <c r="F131">
-        <v>-6.0729088000000001E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>0</v>
       </c>
@@ -3062,17 +1876,8 @@
       <c r="C132">
         <v>0.99160618634164999</v>
       </c>
-      <c r="D132">
-        <v>1.526414911</v>
-      </c>
-      <c r="E132">
-        <v>2.0681663999999999E-2</v>
-      </c>
-      <c r="F132">
-        <v>-6.0191823999999998E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>0</v>
       </c>
@@ -3082,17 +1887,8 @@
       <c r="C133">
         <v>0.99319921635858899</v>
       </c>
-      <c r="D133">
-        <v>1.527941368</v>
-      </c>
-      <c r="E133">
-        <v>2.1561872999999999E-2</v>
-      </c>
-      <c r="F133">
-        <v>-5.9598529999999997E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>0</v>
       </c>
@@ -3102,17 +1898,8 @@
       <c r="C134">
         <v>0.99463870303222801</v>
       </c>
-      <c r="D134">
-        <v>1.5296299040000001</v>
-      </c>
-      <c r="E134">
-        <v>2.2317077000000001E-2</v>
-      </c>
-      <c r="F134">
-        <v>-5.8920650999999997E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>0</v>
       </c>
@@ -3122,17 +1909,8 @@
       <c r="C135">
         <v>0.99586854959450899</v>
       </c>
-      <c r="D135">
-        <v>1.5314916409999999</v>
-      </c>
-      <c r="E135">
-        <v>2.2934487999999999E-2</v>
-      </c>
-      <c r="F135">
-        <v>-5.8123914999999998E-2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>0</v>
       </c>
@@ -3142,17 +1920,8 @@
       <c r="C136">
         <v>0.99692824562459204</v>
       </c>
-      <c r="D136">
-        <v>1.533540039</v>
-      </c>
-      <c r="E136">
-        <v>2.3409327000000001E-2</v>
-      </c>
-      <c r="F136">
-        <v>-5.7169593999999997E-2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>0</v>
       </c>
@@ -3162,17 +1931,8 @@
       <c r="C137">
         <v>0.99784126918946903</v>
       </c>
-      <c r="D137">
-        <v>1.535791645</v>
-      </c>
-      <c r="E137">
-        <v>2.3745291000000002E-2</v>
-      </c>
-      <c r="F137">
-        <v>-5.6016304000000003E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>0</v>
       </c>
@@ -3182,17 +1942,8 @@
       <c r="C138">
         <v>0.99860911848334</v>
       </c>
-      <c r="D138">
-        <v>1.538266793</v>
-      </c>
-      <c r="E138">
-        <v>2.3954258999999999E-2</v>
-      </c>
-      <c r="F138">
-        <v>-5.4622257E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>0</v>
       </c>
@@ -3202,17 +1953,8 @@
       <c r="C139">
         <v>0.99917199101509602</v>
       </c>
-      <c r="D139">
-        <v>1.5409901749999999</v>
-      </c>
-      <c r="E139">
-        <v>2.4055211E-2</v>
-      </c>
-      <c r="F139">
-        <v>-5.2947882000000002E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>0</v>
       </c>
@@ -3222,17 +1964,8 @@
       <c r="C140">
         <v>0.999584022807672</v>
       </c>
-      <c r="D140">
-        <v>1.543991221</v>
-      </c>
-      <c r="E140">
-        <v>2.4072435E-2</v>
-      </c>
-      <c r="F140">
-        <v>-5.0958641999999998E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>0</v>
       </c>
@@ -3242,17 +1975,8 @@
       <c r="C141">
         <v>0.99985913491079204</v>
       </c>
-      <c r="D141">
-        <v>1.547304265</v>
-      </c>
-      <c r="E141">
-        <v>2.4033210999999999E-2</v>
-      </c>
-      <c r="F141">
-        <v>-4.8627904999999999E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>0</v>
       </c>
@@ -3262,17 +1986,8 @@
       <c r="C142">
         <v>0.99999888828969996</v>
       </c>
-      <c r="D142">
-        <v>1.550968466</v>
-      </c>
-      <c r="E142">
-        <v>2.3965225E-2</v>
-      </c>
-      <c r="F142">
-        <v>-4.5939652999999997E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>0</v>
       </c>
@@ -3282,17 +1997,8 @@
       <c r="C143">
         <v>0.99994024557137895</v>
       </c>
-      <c r="D143">
-        <v>1.5550274879999999</v>
-      </c>
-      <c r="E143">
-        <v>2.3894044999999999E-2</v>
-      </c>
-      <c r="F143">
-        <v>-4.2890843999999997E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>0</v>
       </c>
@@ -3302,17 +2008,8 @@
       <c r="C144">
         <v>0.99974857340815204</v>
       </c>
-      <c r="D144">
-        <v>1.559528933</v>
-      </c>
-      <c r="E144">
-        <v>2.384097E-2</v>
-      </c>
-      <c r="F144">
-        <v>-3.9493195000000002E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>0</v>
       </c>
@@ -3322,17 +2019,8 @@
       <c r="C145">
         <v>0.99942898133238001</v>
       </c>
-      <c r="D145">
-        <v>1.564523482</v>
-      </c>
-      <c r="E145">
-        <v>2.3821492E-2</v>
-      </c>
-      <c r="F145">
-        <v>-3.5774173999999999E-2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>0</v>
       </c>
@@ -3342,17 +2030,8 @@
       <c r="C146">
         <v>0.99897916322932001</v>
       </c>
-      <c r="D146">
-        <v>1.570063757</v>
-      </c>
-      <c r="E146">
-        <v>2.3844575E-2</v>
-      </c>
-      <c r="F146">
-        <v>-3.1776998000000001E-2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>0</v>
       </c>
@@ -3362,17 +2041,8 @@
       <c r="C147">
         <v>0.99834315664042095</v>
       </c>
-      <c r="D147">
-        <v>1.576202908</v>
-      </c>
-      <c r="E147">
-        <v>2.3912806000000002E-2</v>
-      </c>
-      <c r="F147">
-        <v>-2.7559510999999998E-2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>0</v>
       </c>
@@ -3382,17 +2052,8 @@
       <c r="C148">
         <v>0.99758508449674099</v>
       </c>
-      <c r="D148">
-        <v>1.582992961</v>
-      </c>
-      <c r="E148">
-        <v>2.4023358000000002E-2</v>
-      </c>
-      <c r="F148">
-        <v>-2.3191902E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>0</v>
       </c>
@@ -3402,17 +2063,8 @@
       <c r="C149">
         <v>0.99670580796027197</v>
       </c>
-      <c r="D149">
-        <v>1.590483026</v>
-      </c>
-      <c r="E149">
-        <v>2.4169579E-2</v>
-      </c>
-      <c r="F149">
-        <v>-1.8753382999999998E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>0</v>
       </c>
@@ -3422,17 +2074,8 @@
       <c r="C150">
         <v>0.99569588470877501</v>
       </c>
-      <c r="D150">
-        <v>1.598717422</v>
-      </c>
-      <c r="E150">
-        <v>2.4342935E-2</v>
-      </c>
-      <c r="F150">
-        <v>-1.4328052000000001E-2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>0</v>
       </c>
@@ -3442,17 +2085,8 @@
       <c r="C151">
         <v>0.99451481285420595</v>
       </c>
-      <c r="D151">
-        <v>1.607733871</v>
-      </c>
-      <c r="E151">
-        <v>2.4535044999999998E-2</v>
-      </c>
-      <c r="F151">
-        <v>-1.0000302000000001E-2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>0</v>
       </c>
@@ -3462,17 +2096,8 @@
       <c r="C152">
         <v>0.99321618185605998</v>
       </c>
-      <c r="D152">
-        <v>1.6175618430000001</v>
-      </c>
-      <c r="E152">
-        <v>2.4739575999999999E-2</v>
-      </c>
-      <c r="F152">
-        <v>-5.8502210000000001E-3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>0</v>
       </c>
@@ -3482,17 +2107,8 @@
       <c r="C153">
         <v>0.99180048120071196</v>
       </c>
-      <c r="D153">
-        <v>1.6282211609999999</v>
-      </c>
-      <c r="E153">
-        <v>2.4953803E-2</v>
-      </c>
-      <c r="F153">
-        <v>-1.949398E-3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>0</v>
       </c>
@@ -3502,17 +2118,8 @@
       <c r="C154">
         <v>0.99025144601339399</v>
       </c>
-      <c r="D154">
-        <v>1.6397208999999999</v>
-      </c>
-      <c r="E154">
-        <v>2.5179672E-2</v>
-      </c>
-      <c r="F154">
-        <v>1.642515E-3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>0</v>
       </c>
@@ -3522,17 +2129,8 @@
       <c r="C155">
         <v>0.98854233525388902</v>
       </c>
-      <c r="D155">
-        <v>1.652058593</v>
-      </c>
-      <c r="E155">
-        <v>2.5424192000000002E-2</v>
-      </c>
-      <c r="F155">
-        <v>4.8802120000000001E-3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>0</v>
       </c>
@@ -3542,17 +2140,8 @@
       <c r="C156">
         <v>0.98671812751895005</v>
       </c>
-      <c r="D156">
-        <v>1.665219743</v>
-      </c>
-      <c r="E156">
-        <v>2.5699049000000002E-2</v>
-      </c>
-      <c r="F156">
-        <v>7.7340170000000001E-3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>0</v>
       </c>
@@ -3562,17 +2151,8 @@
       <c r="C157">
         <v>0.984779100780942</v>
       </c>
-      <c r="D157">
-        <v>1.6791776860000001</v>
-      </c>
-      <c r="E157">
-        <v>2.6019383E-2</v>
-      </c>
-      <c r="F157">
-        <v>1.0189992E-2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>0</v>
       </c>
@@ -3582,17 +2162,8 @@
       <c r="C158">
         <v>0.98270241362644695</v>
       </c>
-      <c r="D158">
-        <v>1.6938938450000001</v>
-      </c>
-      <c r="E158">
-        <v>2.6401823000000001E-2</v>
-      </c>
-      <c r="F158">
-        <v>1.224896E-2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>0</v>
       </c>
@@ -3602,17 +2173,8 @@
       <c r="C159">
         <v>0.98047465905332598</v>
       </c>
-      <c r="D159">
-        <v>1.7093185070000001</v>
-      </c>
-      <c r="E159">
-        <v>2.6862001999999999E-2</v>
-      </c>
-      <c r="F159">
-        <v>1.3924654999999999E-2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>0</v>
       </c>
@@ -3622,17 +2184,8 @@
       <c r="C160">
         <v>0.97813340731173704</v>
       </c>
-      <c r="D160">
-        <v>1.7253921619999999</v>
-      </c>
-      <c r="E160">
-        <v>2.7411937000000001E-2</v>
-      </c>
-      <c r="F160">
-        <v>1.5241215000000001E-2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>0</v>
       </c>
@@ -3642,17 +2195,8 @@
       <c r="C161">
         <v>0.97567892250098398</v>
       </c>
-      <c r="D161">
-        <v>1.742047425</v>
-      </c>
-      <c r="E161">
-        <v>2.8057611E-2</v>
-      </c>
-      <c r="F161">
-        <v>1.6230349000000002E-2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>0</v>
       </c>
@@ -3662,17 +2206,8 @@
       <c r="C162">
         <v>0.97308220437051196</v>
       </c>
-      <c r="D162">
-        <v>1.7592114299999999</v>
-      </c>
-      <c r="E162">
-        <v>2.8797093999999999E-2</v>
-      </c>
-      <c r="F162">
-        <v>1.6928466999999999E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>0</v>
       </c>
@@ -3682,17 +2217,8 @@
       <c r="C163">
         <v>0.97034329119498697</v>
       </c>
-      <c r="D163">
-        <v>1.7768085549999999</v>
-      </c>
-      <c r="E163">
-        <v>2.9619412000000001E-2</v>
-      </c>
-      <c r="F163">
-        <v>1.7374028E-2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>0</v>
       </c>
@@ -3702,17 +2228,8 @@
       <c r="C164">
         <v>0.96749283336646896</v>
       </c>
-      <c r="D164">
-        <v>1.794763302</v>
-      </c>
-      <c r="E164">
-        <v>3.0504292999999998E-2</v>
-      </c>
-      <c r="F164">
-        <v>1.7605327E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>0</v>
       </c>
@@ -3722,17 +2239,8 @@
       <c r="C165">
         <v>0.964531232813163</v>
       </c>
-      <c r="D165">
-        <v>1.813003138</v>
-      </c>
-      <c r="E165">
-        <v>3.1422789E-2</v>
-      </c>
-      <c r="F165">
-        <v>1.7658805E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>0</v>
       </c>
@@ -3742,17 +2250,8 @@
       <c r="C166">
         <v>0.96142401934303001</v>
       </c>
-      <c r="D166">
-        <v>1.831461137</v>
-      </c>
-      <c r="E166">
-        <v>3.2338684999999999E-2</v>
-      </c>
-      <c r="F166">
-        <v>1.7567896E-2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>0</v>
       </c>
@@ -3762,17 +2261,8 @@
       <c r="C167">
         <v>0.95818448440613402</v>
       </c>
-      <c r="D167">
-        <v>1.8500782549999999</v>
-      </c>
-      <c r="E167">
-        <v>3.3210490000000002E-2</v>
-      </c>
-      <c r="F167">
-        <v>1.7362335999999999E-2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>0</v>
       </c>
@@ -3782,17 +2272,8 @@
       <c r="C168">
         <v>0.95483641981791101</v>
       </c>
-      <c r="D168">
-        <v>1.868805126</v>
-      </c>
-      <c r="E168">
-        <v>3.3993793000000001E-2</v>
-      </c>
-      <c r="F168">
-        <v>1.7067816E-2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>0</v>
       </c>
@@ -3802,17 +2283,8 @@
       <c r="C169">
         <v>0.95138040422104797</v>
       </c>
-      <c r="D169">
-        <v>1.8876033080000001</v>
-      </c>
-      <c r="E169">
-        <v>3.4643644000000001E-2</v>
-      </c>
-      <c r="F169">
-        <v>1.6705801999999999E-2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>0</v>
       </c>
@@ -3822,17 +2294,8 @@
       <c r="C170">
         <v>0.94777727692787295</v>
       </c>
-      <c r="D170">
-        <v>1.906445921</v>
-      </c>
-      <c r="E170">
-        <v>3.5116623999999999E-2</v>
-      </c>
-      <c r="F170">
-        <v>1.6293358000000001E-2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>0</v>
       </c>
@@ -3842,17 +2305,8 @@
       <c r="C171">
         <v>0.94405261308402499</v>
       </c>
-      <c r="D171">
-        <v>1.9253176380000001</v>
-      </c>
-      <c r="E171">
-        <v>3.5372318999999999E-2</v>
-      </c>
-      <c r="F171">
-        <v>1.5842894999999999E-2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>0</v>
       </c>
@@ -3862,17 +2316,8 @@
       <c r="C172">
         <v>0.94022332342322501</v>
       </c>
-      <c r="D172">
-        <v>1.9442140059999999</v>
-      </c>
-      <c r="E172">
-        <v>3.5374122000000001E-2</v>
-      </c>
-      <c r="F172">
-        <v>1.5361846E-2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>0</v>
       </c>
@@ -3882,17 +2327,8 @@
       <c r="C173">
         <v>0.93629005193427195</v>
       </c>
-      <c r="D173">
-        <v>1.963140098</v>
-      </c>
-      <c r="E173">
-        <v>3.5089587999999998E-2</v>
-      </c>
-      <c r="F173">
-        <v>1.4852394E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>0</v>
       </c>
@@ -3902,17 +2338,8 @@
       <c r="C174">
         <v>0.93220931021465603</v>
       </c>
-      <c r="D174">
-        <v>1.982108601</v>
-      </c>
-      <c r="E174">
-        <v>3.4490707000000002E-2</v>
-      </c>
-      <c r="F174">
-        <v>1.4311432000000001E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>0</v>
       </c>
@@ -3922,17 +2349,8 @@
       <c r="C175">
         <v>0.92801740714597603</v>
       </c>
-      <c r="D175">
-        <v>2.0011374769999999</v>
-      </c>
-      <c r="E175">
-        <v>3.3554542999999999E-2</v>
-      </c>
-      <c r="F175">
-        <v>1.3730885E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>0</v>
       </c>
@@ -3942,17 +2360,8 @@
       <c r="C176">
         <v>0.92372445946123705</v>
       </c>
-      <c r="D176">
-        <v>2.0202474590000001</v>
-      </c>
-      <c r="E176">
-        <v>3.2264519999999998E-2</v>
-      </c>
-      <c r="F176">
-        <v>1.3098476E-2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>0</v>
       </c>
@@ -3962,17 +2371,8 @@
       <c r="C177">
         <v>0.91933091085912999</v>
       </c>
-      <c r="D177">
-        <v>2.0394595789999999</v>
-      </c>
-      <c r="E177">
-        <v>3.0612415E-2</v>
-      </c>
-      <c r="F177">
-        <v>1.2398924E-2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>0</v>
       </c>
@@ -3982,17 +2382,8 @@
       <c r="C178">
         <v>0.91478811406428995</v>
       </c>
-      <c r="D178">
-        <v>2.058792918</v>
-      </c>
-      <c r="E178">
-        <v>2.8600885E-2</v>
-      </c>
-      <c r="F178">
-        <v>1.1615464000000001E-2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>0</v>
       </c>
@@ -4002,17 +2393,8 @@
       <c r="C179">
         <v>0.91014193102924401</v>
       </c>
-      <c r="D179">
-        <v>2.078262665</v>
-      </c>
-      <c r="E179">
-        <v>2.6246108000000001E-2</v>
-      </c>
-      <c r="F179">
-        <v>1.0731546E-2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>0</v>
       </c>
@@ -4022,17 +2404,8 @@
       <c r="C180">
         <v>0.90539580797222796</v>
       </c>
-      <c r="D180">
-        <v>2.097878589</v>
-      </c>
-      <c r="E180">
-        <v>2.3580053E-2</v>
-      </c>
-      <c r="F180">
-        <v>9.7325199999999997E-3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>0</v>
       </c>
@@ -4042,17 +2415,8 @@
       <c r="C181">
         <v>0.90054740485607998</v>
       </c>
-      <c r="D181">
-        <v>2.1176440240000001</v>
-      </c>
-      <c r="E181">
-        <v>2.0651882999999999E-2</v>
-      </c>
-      <c r="F181">
-        <v>8.6071120000000001E-3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>0</v>
       </c>
@@ -4062,17 +2426,8 @@
       <c r="C182">
         <v>0.89554663339615204</v>
       </c>
-      <c r="D182">
-        <v>2.1375554810000001</v>
-      </c>
-      <c r="E182">
-        <v>1.7528135E-2</v>
-      </c>
-      <c r="F182">
-        <v>7.3485149999999999E-3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>0</v>
       </c>
@@ -4082,17 +2437,8 @@
       <c r="C183">
         <v>0.89044306173672705</v>
       </c>
-      <c r="D183">
-        <v>2.1576029910000001</v>
-      </c>
-      <c r="E183">
-        <v>1.4291464E-2</v>
-      </c>
-      <c r="F183">
-        <v>5.9550050000000002E-3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>0</v>
       </c>
@@ -4102,17 +2448,8 @@
       <c r="C184">
         <v>0.88523548065572699</v>
       </c>
-      <c r="D184">
-        <v>2.177771205</v>
-      </c>
-      <c r="E184">
-        <v>1.1037903E-2</v>
-      </c>
-      <c r="F184">
-        <v>4.4300210000000001E-3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>0</v>
       </c>
@@ -4122,17 +2459,8 @@
       <c r="C185">
         <v>0.87991404940642803</v>
       </c>
-      <c r="D185">
-        <v>2.1980411960000001</v>
-      </c>
-      <c r="E185">
-        <v>7.8727090000000003E-3</v>
-      </c>
-      <c r="F185">
-        <v>2.7817530000000001E-3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>0</v>
       </c>
@@ -4142,17 +2470,8 @@
       <c r="C186">
         <v>0.87443465243686902</v>
       </c>
-      <c r="D186">
-        <v>2.2183927699999999</v>
-      </c>
-      <c r="E186">
-        <v>4.9049719999999996E-3</v>
-      </c>
-      <c r="F186">
-        <v>1.0223140000000001E-3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>0</v>
       </c>
@@ -4162,17 +2481,8 @@
       <c r="C187">
         <v>0.86884206011033505</v>
       </c>
-      <c r="D187">
-        <v>2.2388069970000002</v>
-      </c>
-      <c r="E187">
-        <v>2.241327E-3</v>
-      </c>
-      <c r="F187">
-        <v>-8.3336700000000001E-4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>0</v>
       </c>
@@ -4182,17 +2492,9 @@
       <c r="C188">
         <v>0.86313370998221595</v>
       </c>
-      <c r="D188">
-        <v>2.2592686550000001</v>
-      </c>
-      <c r="E188" s="3">
-        <v>-2.07996E-5</v>
-      </c>
-      <c r="F188">
-        <v>-2.7687889999999998E-3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
+      <c r="E188" s="3"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>0</v>
       </c>
@@ -4202,17 +2504,8 @@
       <c r="C189">
         <v>0.85728977319711597</v>
       </c>
-      <c r="D189">
-        <v>2.2797683129999999</v>
-      </c>
-      <c r="E189">
-        <v>-1.799826E-3</v>
-      </c>
-      <c r="F189">
-        <v>-4.7671279999999998E-3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>0</v>
       </c>
@@ -4222,17 +2515,8 @@
       <c r="C190">
         <v>0.85127071072958704</v>
       </c>
-      <c r="D190">
-        <v>2.3003038920000001</v>
-      </c>
-      <c r="E190">
-        <v>-3.0358859999999998E-3</v>
-      </c>
-      <c r="F190">
-        <v>-6.8123410000000004E-3</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>0</v>
       </c>
@@ -4242,17 +2526,8 @@
       <c r="C191">
         <v>0.845119089142635</v>
       </c>
-      <c r="D191">
-        <v>2.3208816159999999</v>
-      </c>
-      <c r="E191">
-        <v>-3.6953120000000001E-3</v>
-      </c>
-      <c r="F191">
-        <v>-8.8900330000000003E-3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>0</v>
       </c>
@@ -4262,17 +2537,8 @@
       <c r="C192">
         <v>0.83883091740534299</v>
       </c>
-      <c r="D192">
-        <v>2.3415162939999998</v>
-      </c>
-      <c r="E192">
-        <v>-3.773176E-3</v>
-      </c>
-      <c r="F192">
-        <v>-1.0988023E-2</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>0</v>
       </c>
@@ -4282,17 +2548,8 @@
       <c r="C193">
         <v>0.83237248874804304</v>
       </c>
-      <c r="D193">
-        <v>2.3622308849999998</v>
-      </c>
-      <c r="E193">
-        <v>-3.2935809999999999E-3</v>
-      </c>
-      <c r="F193">
-        <v>-1.3096603E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>0</v>
       </c>
@@ -4302,17 +2559,8 @@
       <c r="C194">
         <v>0.82571126533915595</v>
       </c>
-      <c r="D194">
-        <v>2.383055304</v>
-      </c>
-      <c r="E194">
-        <v>-2.3076070000000001E-3</v>
-      </c>
-      <c r="F194">
-        <v>-1.5208535E-2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>0</v>
       </c>
@@ -4322,17 +2570,8 @@
       <c r="C195">
         <v>0.818889497047666</v>
       </c>
-      <c r="D195">
-        <v>2.4040244670000002</v>
-      </c>
-      <c r="E195">
-        <v>-8.8907400000000001E-4</v>
-      </c>
-      <c r="F195">
-        <v>-1.7318839999999999E-2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>0</v>
       </c>
@@ -4342,17 +2581,8 @@
       <c r="C196">
         <v>0.81190206057745096</v>
       </c>
-      <c r="D196">
-        <v>2.4251756279999999</v>
-      </c>
-      <c r="E196">
-        <v>8.7148E-4</v>
-      </c>
-      <c r="F196">
-        <v>-1.9424426000000002E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>0</v>
       </c>
@@ -4362,17 +2592,8 @@
       <c r="C197">
         <v>0.80469681669181403</v>
       </c>
-      <c r="D197">
-        <v>2.446545145</v>
-      </c>
-      <c r="E197">
-        <v>2.874101E-3</v>
-      </c>
-      <c r="F197">
-        <v>-2.1523570999999998E-2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>0</v>
       </c>
@@ -4382,17 +2603,8 @@
       <c r="C198">
         <v>0.79725522811893001</v>
       </c>
-      <c r="D198">
-        <v>2.4681648620000001</v>
-      </c>
-      <c r="E198">
-        <v>5.0173639999999999E-3</v>
-      </c>
-      <c r="F198">
-        <v>-2.3615267999999998E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>0</v>
       </c>
@@ -4402,17 +2614,8 @@
       <c r="C199">
         <v>0.78961954842368898</v>
       </c>
-      <c r="D199">
-        <v>2.490058383</v>
-      </c>
-      <c r="E199">
-        <v>7.2062480000000002E-3</v>
-      </c>
-      <c r="F199">
-        <v>-2.5698510000000001E-2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>0</v>
       </c>
@@ -4422,17 +2625,8 @@
       <c r="C200">
         <v>0.78178426150905</v>
       </c>
-      <c r="D200">
-        <v>2.5122375049999999</v>
-      </c>
-      <c r="E200">
-        <v>9.3592429999999997E-3</v>
-      </c>
-      <c r="F200">
-        <v>-2.7771608E-2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>0</v>
       </c>
@@ -4442,17 +2636,8 @@
       <c r="C201">
         <v>0.77367520525921796</v>
       </c>
-      <c r="D201">
-        <v>2.5346991220000001</v>
-      </c>
-      <c r="E201">
-        <v>1.141404E-2</v>
-      </c>
-      <c r="F201">
-        <v>-2.9831692E-2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>0</v>
       </c>
@@ -4462,17 +2647,8 @@
       <c r="C202">
         <v>0.76529835915183297</v>
       </c>
-      <c r="D202">
-        <v>2.5574228360000002</v>
-      </c>
-      <c r="E202">
-        <v>1.3331279E-2</v>
-      </c>
-      <c r="F202">
-        <v>-3.1874515999999999E-2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>0</v>
       </c>
@@ -4482,17 +2658,8 @@
       <c r="C203">
         <v>0.75669432919449597</v>
       </c>
-      <c r="D203">
-        <v>2.58036953</v>
-      </c>
-      <c r="E203">
-        <v>1.5096072E-2</v>
-      </c>
-      <c r="F203">
-        <v>-3.3894594E-2</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>0</v>
       </c>
@@ -4502,17 +2669,8 @@
       <c r="C204">
         <v>0.74785835922898103</v>
       </c>
-      <c r="D204">
-        <v>2.6034810469999998</v>
-      </c>
-      <c r="E204">
-        <v>1.6717221000000001E-2</v>
-      </c>
-      <c r="F204">
-        <v>-3.5885656000000002E-2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>0</v>
       </c>
@@ -4522,17 +2680,8 @@
       <c r="C205">
         <v>0.73869396490646499</v>
       </c>
-      <c r="D205">
-        <v>2.6266810839999999</v>
-      </c>
-      <c r="E205">
-        <v>1.8224311E-2</v>
-      </c>
-      <c r="F205">
-        <v>-3.7841315E-2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>0</v>
       </c>
@@ -4542,17 +2691,8 @@
       <c r="C206">
         <v>0.72924243707686598</v>
       </c>
-      <c r="D206">
-        <v>2.6498772989999999</v>
-      </c>
-      <c r="E206">
-        <v>1.9663054999999999E-2</v>
-      </c>
-      <c r="F206">
-        <v>-3.9755829999999999E-2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>0</v>
       </c>
@@ -4562,17 +2702,8 @@
       <c r="C207">
         <v>0.719539493187074</v>
       </c>
-      <c r="D207">
-        <v>2.672964522</v>
-      </c>
-      <c r="E207">
-        <v>2.1089433000000001E-2</v>
-      </c>
-      <c r="F207">
-        <v>-4.1624873999999999E-2</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>0</v>
       </c>
@@ -4582,17 +2713,8 @@
       <c r="C208">
         <v>0.70958254997163495</v>
       </c>
-      <c r="D208">
-        <v>2.6958288829999999</v>
-      </c>
-      <c r="E208">
-        <v>2.2563274000000001E-2</v>
-      </c>
-      <c r="F208">
-        <v>-4.3446191000000002E-2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>0</v>
       </c>
@@ -4602,17 +2724,8 @@
       <c r="C209">
         <v>0.69925824514555102</v>
       </c>
-      <c r="D209">
-        <v>2.7183525610000001</v>
-      </c>
-      <c r="E209">
-        <v>2.4141955999999999E-2</v>
-      </c>
-      <c r="F209">
-        <v>-4.5220074999999998E-2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>0</v>
       </c>
@@ -4622,17 +2735,8 @@
       <c r="C210">
         <v>0.68864926701067297</v>
       </c>
-      <c r="D210">
-        <v>2.7404188409999999</v>
-      </c>
-      <c r="E210">
-        <v>2.5874845E-2</v>
-      </c>
-      <c r="F210">
-        <v>-4.6949612000000002E-2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>0</v>
       </c>
@@ -4642,17 +2746,8 @@
       <c r="C211">
         <v>0.67778287146791005</v>
       </c>
-      <c r="D211">
-        <v>2.7619170980000001</v>
-      </c>
-      <c r="E211">
-        <v>2.7798922E-2</v>
-      </c>
-      <c r="F211">
-        <v>-4.8640655999999997E-2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>0</v>
       </c>
@@ -4662,17 +2757,8 @@
       <c r="C212">
         <v>0.66666005001397</v>
       </c>
-      <c r="D212">
-        <v>2.7827473820000002</v>
-      </c>
-      <c r="E212">
-        <v>2.9935916E-2</v>
-      </c>
-      <c r="F212">
-        <v>-5.0301564E-2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>0</v>
       </c>
@@ -4682,17 +2768,8 @@
       <c r="C213">
         <v>0.65516342337890698</v>
       </c>
-      <c r="D213">
-        <v>2.8028243050000001</v>
-      </c>
-      <c r="E213">
-        <v>3.2291047000000003E-2</v>
-      </c>
-      <c r="F213">
-        <v>-5.1942687000000001E-2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>0</v>
       </c>
@@ -4702,17 +2779,8 @@
       <c r="C214">
         <v>0.64341301521327698</v>
       </c>
-      <c r="D214">
-        <v>2.8220799990000001</v>
-      </c>
-      <c r="E214">
-        <v>3.4853360999999999E-2</v>
-      </c>
-      <c r="F214">
-        <v>-5.3575695E-2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>0</v>
       </c>
@@ -4722,17 +2790,8 @@
       <c r="C215">
         <v>0.63142557171995894</v>
       </c>
-      <c r="D215">
-        <v>2.840465977</v>
-      </c>
-      <c r="E215">
-        <v>3.7597424999999997E-2</v>
-      </c>
-      <c r="F215">
-        <v>-5.5212790999999997E-2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>0</v>
       </c>
@@ -4742,17 +2801,8 @@
       <c r="C216">
         <v>0.61920356626953499</v>
       </c>
-      <c r="D216">
-        <v>2.8579538310000001</v>
-      </c>
-      <c r="E216">
-        <v>4.0486067000000001E-2</v>
-      </c>
-      <c r="F216">
-        <v>-5.6865885999999997E-2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>0</v>
       </c>
@@ -4762,17 +2812,8 @@
       <c r="C217">
         <v>0.60665507328336998</v>
       </c>
-      <c r="D217">
-        <v>2.8745347689999998</v>
-      </c>
-      <c r="E217">
-        <v>4.3473750999999998E-2</v>
-      </c>
-      <c r="F217">
-        <v>-5.8545798000000003E-2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>0</v>
       </c>
@@ -4782,17 +2823,8 @@
       <c r="C218">
         <v>0.59390998163043596</v>
       </c>
-      <c r="D218">
-        <v>2.8902180820000001</v>
-      </c>
-      <c r="E218">
-        <v>4.6510233999999998E-2</v>
-      </c>
-      <c r="F218">
-        <v>-6.0261525000000003E-2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>0</v>
       </c>
@@ -4802,17 +2834,8 @@
       <c r="C219">
         <v>0.58097896083130895</v>
       </c>
-      <c r="D219">
-        <v>2.9050287039999998</v>
-      </c>
-      <c r="E219">
-        <v>4.9544179000000001E-2</v>
-      </c>
-      <c r="F219">
-        <v>-6.2019602E-2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>0</v>
       </c>
@@ -4822,17 +2845,8 @@
       <c r="C220">
         <v>0.56786180368872297</v>
       </c>
-      <c r="D220">
-        <v>2.9190040810000002</v>
-      </c>
-      <c r="E220">
-        <v>5.2526466000000001E-2</v>
-      </c>
-      <c r="F220">
-        <v>-6.3823574999999994E-2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>0</v>
       </c>
@@ -4842,17 +2856,8 @@
       <c r="C221">
         <v>0.55452978908717898</v>
       </c>
-      <c r="D221">
-        <v>2.9321905830000001</v>
-      </c>
-      <c r="E221">
-        <v>5.541302E-2</v>
-      </c>
-      <c r="F221">
-        <v>-6.5673616000000004E-2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>0</v>
       </c>
@@ -4862,17 +2867,8 @@
       <c r="C222">
         <v>0.54107716588742505</v>
       </c>
-      <c r="D222">
-        <v>2.9446397310000001</v>
-      </c>
-      <c r="E222">
-        <v>5.8167053000000003E-2</v>
-      </c>
-      <c r="F222">
-        <v>-6.7566314000000002E-2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>0</v>
       </c>
@@ -4882,17 +2878,8 @@
       <c r="C223">
         <v>0.52751860725765698</v>
       </c>
-      <c r="D223">
-        <v>2.9564044799999998</v>
-      </c>
-      <c r="E223">
-        <v>6.0760650999999999E-2</v>
-      </c>
-      <c r="F223">
-        <v>-6.9494664999999997E-2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>0</v>
       </c>
@@ -4902,17 +2889,8 @@
       <c r="C224">
         <v>0.51386174106789095</v>
       </c>
-      <c r="D224">
-        <v>2.9675358200000002</v>
-      </c>
-      <c r="E224">
-        <v>6.3175673000000002E-2</v>
-      </c>
-      <c r="F224">
-        <v>-7.1448286E-2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>0</v>
       </c>
@@ -4922,17 +2900,8 @@
       <c r="C225">
         <v>0.50013017335105203</v>
       </c>
-      <c r="D225">
-        <v>2.9780798989999999</v>
-      </c>
-      <c r="E225">
-        <v>6.5403891000000006E-2</v>
-      </c>
-      <c r="F225">
-        <v>-7.3413863999999995E-2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>0</v>
       </c>
@@ -4942,17 +2911,8 @@
       <c r="C226">
         <v>0.48637557758864702</v>
       </c>
-      <c r="D226">
-        <v>2.9880758369999998</v>
-      </c>
-      <c r="E226">
-        <v>6.7446344000000005E-2</v>
-      </c>
-      <c r="F226">
-        <v>-7.5375831000000004E-2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>0</v>
       </c>
@@ -4962,17 +2922,8 @@
       <c r="C227">
         <v>0.472614650754548</v>
       </c>
-      <c r="D227">
-        <v>2.9975543359999999</v>
-      </c>
-      <c r="E227">
-        <v>6.9311933000000006E-2</v>
-      </c>
-      <c r="F227">
-        <v>-7.7317236999999997E-2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>0</v>
       </c>
@@ -4982,17 +2933,8 @@
       <c r="C228">
         <v>0.458874131690794</v>
       </c>
-      <c r="D228">
-        <v>3.0065371110000001</v>
-      </c>
-      <c r="E228">
-        <v>7.1015379000000003E-2</v>
-      </c>
-      <c r="F228">
-        <v>-7.9220745999999995E-2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>0</v>
       </c>
@@ -5002,17 +2944,8 @@
       <c r="C229">
         <v>0.445204343745221</v>
       </c>
-      <c r="D229">
-        <v>3.0150371140000001</v>
-      </c>
-      <c r="E229">
-        <v>7.2574783000000004E-2</v>
-      </c>
-      <c r="F229">
-        <v>-8.1069668999999997E-2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>0</v>
       </c>
@@ -5022,17 +2955,8 @@
       <c r="C230">
         <v>0.43161551630431999</v>
       </c>
-      <c r="D230">
-        <v>3.0230594370000001</v>
-      </c>
-      <c r="E230">
-        <v>7.4009120999999997E-2</v>
-      </c>
-      <c r="F230">
-        <v>-8.2848923000000005E-2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>0</v>
       </c>
@@ -5042,17 +2966,8 @@
       <c r="C231">
         <v>0.41812354929448597</v>
       </c>
-      <c r="D231">
-        <v>3.0306027539999998</v>
-      </c>
-      <c r="E231">
-        <v>7.5335989000000006E-2</v>
-      </c>
-      <c r="F231">
-        <v>-8.4545810999999998E-2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>0</v>
       </c>
@@ -5062,17 +2977,8 @@
       <c r="C232">
         <v>0.40478190101861</v>
       </c>
-      <c r="D232">
-        <v>3.0376611210000002</v>
-      </c>
-      <c r="E232">
-        <v>7.6569878999999993E-2</v>
-      </c>
-      <c r="F232">
-        <v>-8.6150545999999995E-2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>0</v>
       </c>
@@ -5082,17 +2988,8 @@
       <c r="C233">
         <v>0.39163427113358501</v>
       </c>
-      <c r="D233">
-        <v>3.0442259479999998</v>
-      </c>
-      <c r="E233">
-        <v>7.7721140999999994E-2</v>
-      </c>
-      <c r="F233">
-        <v>-8.7656500999999998E-2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>0</v>
       </c>
@@ -5102,17 +2999,8 @@
       <c r="C234">
         <v>0.37865862769898601</v>
       </c>
-      <c r="D234">
-        <v>3.0502879959999998</v>
-      </c>
-      <c r="E234">
-        <v>7.8795635000000003E-2</v>
-      </c>
-      <c r="F234">
-        <v>-8.9060194999999995E-2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>0</v>
       </c>
@@ -5122,17 +3010,8 @@
       <c r="C235">
         <v>0.36586705849338802</v>
       </c>
-      <c r="D235">
-        <v>3.055839239</v>
-      </c>
-      <c r="E235">
-        <v>7.9794979000000002E-2</v>
-      </c>
-      <c r="F235">
-        <v>-9.0361076999999998E-2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6">
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>0</v>
       </c>
@@ -5142,17 +3021,8 @@
       <c r="C236">
         <v>0.35333951311189099</v>
       </c>
-      <c r="D236">
-        <v>3.0608745079999999</v>
-      </c>
-      <c r="E236">
-        <v>8.0717246000000006E-2</v>
-      </c>
-      <c r="F236">
-        <v>-9.1561160000000003E-2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6">
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>0</v>
       </c>
@@ -5162,17 +3032,8 @@
       <c r="C237">
         <v>0.341083465792621</v>
       </c>
-      <c r="D237">
-        <v>3.0653928260000001</v>
-      </c>
-      <c r="E237">
-        <v>8.1557946000000006E-2</v>
-      </c>
-      <c r="F237">
-        <v>-9.2664568000000003E-2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>0</v>
       </c>
@@ -5182,17 +3043,8 @@
       <c r="C238">
         <v>0.329059195910757</v>
       </c>
-      <c r="D238">
-        <v>3.0693984159999999</v>
-      </c>
-      <c r="E238">
-        <v>8.2311151999999999E-2</v>
-      </c>
-      <c r="F238">
-        <v>-9.3677028999999995E-2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>0</v>
       </c>
@@ -5202,17 +3054,8 @@
       <c r="C239">
         <v>0.31727269103093197</v>
       </c>
-      <c r="D239">
-        <v>3.0729013329999999</v>
-      </c>
-      <c r="E239">
-        <v>8.2970642999999997E-2</v>
-      </c>
-      <c r="F239">
-        <v>-9.4605355000000002E-2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>0</v>
       </c>
@@ -5222,17 +3065,8 @@
       <c r="C240">
         <v>0.30582084125430797</v>
       </c>
-      <c r="D240">
-        <v>3.075917751</v>
-      </c>
-      <c r="E240">
-        <v>8.3530938999999998E-2</v>
-      </c>
-      <c r="F240">
-        <v>-9.5456935000000007E-2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>0</v>
       </c>
@@ -5242,17 +3076,8 @@
       <c r="C241">
         <v>0.29466069488820201</v>
       </c>
-      <c r="D241">
-        <v>3.07846989</v>
-      </c>
-      <c r="E241">
-        <v>8.3988157999999993E-2</v>
-      </c>
-      <c r="F241">
-        <v>-9.6239284999999994E-2</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>0</v>
       </c>
@@ -5262,17 +3087,8 @@
       <c r="C242">
         <v>0.28375022243211001</v>
       </c>
-      <c r="D242">
-        <v>3.0805856509999998</v>
-      </c>
-      <c r="E242">
-        <v>8.4340626000000002E-2</v>
-      </c>
-      <c r="F242">
-        <v>-9.6959660000000003E-2</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>0</v>
       </c>
@@ -5282,17 +3098,8 @@
       <c r="C243">
         <v>0.273088659656615</v>
       </c>
-      <c r="D243">
-        <v>3.0822979780000002</v>
-      </c>
-      <c r="E243">
-        <v>8.4589229000000002E-2</v>
-      </c>
-      <c r="F243">
-        <v>-9.7624762000000004E-2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>0</v>
       </c>
@@ -5302,17 +3109,8 @@
       <c r="C244">
         <v>0.262774086502431</v>
       </c>
-      <c r="D244">
-        <v>3.083644015</v>
-      </c>
-      <c r="E244">
-        <v>8.4737533000000004E-2</v>
-      </c>
-      <c r="F244">
-        <v>-9.8240523999999996E-2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>0</v>
       </c>
@@ -5322,17 +3120,8 @@
       <c r="C245">
         <v>0.25272014114086599</v>
       </c>
-      <c r="D245">
-        <v>3.0846641090000002</v>
-      </c>
-      <c r="E245">
-        <v>8.4791702999999996E-2</v>
-      </c>
-      <c r="F245">
-        <v>-9.8811976999999995E-2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>0</v>
       </c>
@@ -5342,17 +3131,8 @@
       <c r="C246">
         <v>0.24289396439091701</v>
       </c>
-      <c r="D246">
-        <v>3.0854006869999999</v>
-      </c>
-      <c r="E246">
-        <v>8.4760274999999996E-2</v>
-      </c>
-      <c r="F246">
-        <v>-9.9343204000000004E-2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>0</v>
       </c>
@@ -5362,17 +3142,8 @@
       <c r="C247">
         <v>0.23328949033429699</v>
       </c>
-      <c r="D247">
-        <v>3.085897074</v>
-      </c>
-      <c r="E247">
-        <v>8.4653848000000004E-2</v>
-      </c>
-      <c r="F247">
-        <v>-9.9837363999999998E-2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>0</v>
       </c>
@@ -5382,17 +3153,8 @@
       <c r="C248">
         <v>0.22399150354443001</v>
       </c>
-      <c r="D248">
-        <v>3.0861962909999998</v>
-      </c>
-      <c r="E248">
-        <v>8.4484737000000004E-2</v>
-      </c>
-      <c r="F248">
-        <v>-0.100296779</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>0</v>
       </c>
@@ -5402,17 +3164,8 @@
       <c r="C249">
         <v>0.214893769785517</v>
       </c>
-      <c r="D249">
-        <v>3.0863398910000002</v>
-      </c>
-      <c r="E249">
-        <v>8.4266601999999996E-2</v>
-      </c>
-      <c r="F249">
-        <v>-0.100723088</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>0</v>
       </c>
@@ -5422,17 +3175,8 @@
       <c r="C250">
         <v>0.205977560969961</v>
       </c>
-      <c r="D250">
-        <v>3.086366913</v>
-      </c>
-      <c r="E250">
-        <v>8.4014064999999999E-2</v>
-      </c>
-      <c r="F250">
-        <v>-0.101117445</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>0</v>
       </c>
@@ -5442,17 +3186,8 @@
       <c r="C251">
         <v>0.19723582666851999</v>
       </c>
-      <c r="D251">
-        <v>3.0863130000000001</v>
-      </c>
-      <c r="E251">
-        <v>8.3742286999999999E-2</v>
-      </c>
-      <c r="F251">
-        <v>-0.10148075199999999</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6">
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>0</v>
       </c>
@@ -5462,17 +3197,8 @@
       <c r="C252">
         <v>0.188731797884818</v>
       </c>
-      <c r="D252">
-        <v>3.0862097309999998</v>
-      </c>
-      <c r="E252">
-        <v>8.3466495000000002E-2</v>
-      </c>
-      <c r="F252">
-        <v>-0.10181389</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6">
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>0</v>
       </c>
@@ -5482,17 +3208,8 @@
       <c r="C253">
         <v>0.180368350037754</v>
       </c>
-      <c r="D253">
-        <v>3.0860841830000001</v>
-      </c>
-      <c r="E253">
-        <v>8.3201445999999998E-2</v>
-      </c>
-      <c r="F253">
-        <v>-0.102117927</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6">
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>0</v>
       </c>
@@ -5502,17 +3219,8 @@
       <c r="C254">
         <v>0.17213903882772599</v>
       </c>
-      <c r="D254">
-        <v>3.0859587089999998</v>
-      </c>
-      <c r="E254">
-        <v>8.2960832999999998E-2</v>
-      </c>
-      <c r="F254">
-        <v>-0.102394265</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6">
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>0</v>
       </c>
@@ -5522,17 +3230,8 @@
       <c r="C255">
         <v>0.16404481560245099</v>
       </c>
-      <c r="D255">
-        <v>3.0858509089999999</v>
-      </c>
-      <c r="E255">
-        <v>8.2756669000000005E-2</v>
-      </c>
-      <c r="F255">
-        <v>-0.10264472400000001</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>0</v>
       </c>
@@ -5542,17 +3241,8 @@
       <c r="C256">
         <v>0.15612029161508001</v>
       </c>
-      <c r="D256">
-        <v>3.085773739</v>
-      </c>
-      <c r="E256">
-        <v>8.2598693000000001E-2</v>
-      </c>
-      <c r="F256">
-        <v>-0.10287155100000001</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>0</v>
       </c>
@@ -5562,17 +3252,8 @@
       <c r="C257">
         <v>0.148304584588965</v>
       </c>
-      <c r="D257">
-        <v>3.08573575</v>
-      </c>
-      <c r="E257">
-        <v>8.2493833000000003E-2</v>
-      </c>
-      <c r="F257">
-        <v>-0.103077372</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>0</v>
       </c>
@@ -5582,17 +3263,8 @@
       <c r="C258">
         <v>0.14059556628535599</v>
       </c>
-      <c r="D258">
-        <v>3.0857413990000002</v>
-      </c>
-      <c r="E258">
-        <v>8.2445788000000006E-2</v>
-      </c>
-      <c r="F258">
-        <v>-0.103265095</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>0</v>
       </c>
@@ -5602,17 +3274,8 @@
       <c r="C259">
         <v>0.13300369581163399</v>
       </c>
-      <c r="D259">
-        <v>3.0857914559999999</v>
-      </c>
-      <c r="E259">
-        <v>8.2454768999999997E-2</v>
-      </c>
-      <c r="F259">
-        <v>-0.103437786</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6">
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>0</v>
       </c>
@@ -5622,17 +3285,8 @@
       <c r="C260">
         <v>0.12555802601027499</v>
       </c>
-      <c r="D260">
-        <v>3.0858834800000001</v>
-      </c>
-      <c r="E260">
-        <v>8.2517415999999996E-2</v>
-      </c>
-      <c r="F260">
-        <v>-0.10359852999999999</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6">
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>0</v>
       </c>
@@ -5642,17 +3296,8 @@
       <c r="C261">
         <v>0.118219301932234</v>
       </c>
-      <c r="D261">
-        <v>3.086012368</v>
-      </c>
-      <c r="E261">
-        <v>8.2626938999999996E-2</v>
-      </c>
-      <c r="F261">
-        <v>-0.103750305</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6">
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>0</v>
       </c>
@@ -5662,17 +3307,8 @@
       <c r="C262">
         <v>0.110990300465868</v>
       </c>
-      <c r="D262">
-        <v>3.086170976</v>
-      </c>
-      <c r="E262">
-        <v>8.2773447999999999E-2</v>
-      </c>
-      <c r="F262">
-        <v>-0.10389585699999999</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>0</v>
       </c>
@@ -5682,17 +3318,8 @@
       <c r="C263">
         <v>0.103896131736099</v>
       </c>
-      <c r="D263">
-        <v>3.0863507989999999</v>
-      </c>
-      <c r="E263">
-        <v>8.2944467999999993E-2</v>
-      </c>
-      <c r="F263">
-        <v>-0.104037611</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6">
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>0</v>
       </c>
@@ -5702,17 +3329,8 @@
       <c r="C264">
         <v>9.6969086404499402E-2</v>
       </c>
-      <c r="D264">
-        <v>3.0865426949999999</v>
-      </c>
-      <c r="E264">
-        <v>8.3125589999999999E-2</v>
-      </c>
-      <c r="F264">
-        <v>-0.10417760500000001</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6">
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>0</v>
       </c>
@@ -5722,17 +3340,8 @@
       <c r="C265">
         <v>9.01761742912984E-2</v>
       </c>
-      <c r="D265">
-        <v>3.086737614</v>
-      </c>
-      <c r="E265">
-        <v>8.3301211999999999E-2</v>
-      </c>
-      <c r="F265">
-        <v>-0.10431747399999999</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6">
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>0</v>
       </c>
@@ -5742,17 +3351,8 @@
       <c r="C266">
         <v>8.3523787414448505E-2</v>
       </c>
-      <c r="D266">
-        <v>3.0869273050000001</v>
-      </c>
-      <c r="E266">
-        <v>8.3455300999999996E-2</v>
-      </c>
-      <c r="F266">
-        <v>-0.104458472</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6">
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>0</v>
       </c>
@@ -5762,17 +3362,8 @@
       <c r="C267">
         <v>7.7058125459006893E-2</v>
       </c>
-      <c r="D267">
-        <v>3.087104949</v>
-      </c>
-      <c r="E267">
-        <v>8.3572146E-2</v>
-      </c>
-      <c r="F267">
-        <v>-0.10460154000000001</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6">
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>0</v>
       </c>
@@ -5782,17 +3373,8 @@
       <c r="C268">
         <v>7.0806918311751399E-2</v>
       </c>
-      <c r="D268">
-        <v>3.0872656699999999</v>
-      </c>
-      <c r="E268">
-        <v>8.3637063999999997E-2</v>
-      </c>
-      <c r="F268">
-        <v>-0.104747407</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6">
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>0</v>
       </c>
@@ -5802,17 +3384,8 @@
       <c r="C269">
         <v>6.4734239098504398E-2</v>
       </c>
-      <c r="D269">
-        <v>3.0874068920000002</v>
-      </c>
-      <c r="E269">
-        <v>8.3637057000000001E-2</v>
-      </c>
-      <c r="F269">
-        <v>-0.10489670700000001</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6">
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>0</v>
       </c>
@@ -5822,17 +3395,8 @@
       <c r="C270">
         <v>5.8847641202385302E-2</v>
       </c>
-      <c r="D270">
-        <v>3.0875284970000001</v>
-      </c>
-      <c r="E270">
-        <v>8.3561396999999996E-2</v>
-      </c>
-      <c r="F270">
-        <v>-0.105050089</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6">
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>0</v>
       </c>
@@ -5842,17 +3406,8 @@
       <c r="C271">
         <v>5.32183012387039E-2</v>
       </c>
-      <c r="D271">
-        <v>3.0876327940000001</v>
-      </c>
-      <c r="E271">
-        <v>8.3402131000000004E-2</v>
-      </c>
-      <c r="F271">
-        <v>-0.105208301</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6">
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>0</v>
       </c>
@@ -5862,17 +3417,8 @@
       <c r="C272">
         <v>4.7851867622302001E-2</v>
       </c>
-      <c r="D272">
-        <v>3.0877242659999999</v>
-      </c>
-      <c r="E272">
-        <v>8.3154481000000002E-2</v>
-      </c>
-      <c r="F272">
-        <v>-0.105372233</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6">
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>0</v>
       </c>
@@ -5882,17 +3428,8 @@
       <c r="C273">
         <v>4.2708392867625199E-2</v>
       </c>
-      <c r="D273">
-        <v>3.0878091479999998</v>
-      </c>
-      <c r="E273">
-        <v>8.2817078000000002E-2</v>
-      </c>
-      <c r="F273">
-        <v>-0.10554290600000001</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6">
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>0</v>
       </c>
@@ -5902,17 +3439,8 @@
       <c r="C274">
         <v>3.7793907488824503E-2</v>
       </c>
-      <c r="D274">
-        <v>3.0878948510000002</v>
-      </c>
-      <c r="E274">
-        <v>8.2392031000000004E-2</v>
-      </c>
-      <c r="F274">
-        <v>-0.105721394</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6">
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>0</v>
       </c>
@@ -5922,17 +3450,8 @@
       <c r="C275">
         <v>3.3202578453953899E-2</v>
       </c>
-      <c r="D275">
-        <v>3.0879892779999998</v>
-      </c>
-      <c r="E275">
-        <v>8.1884789999999999E-2</v>
-      </c>
-      <c r="F275">
-        <v>-0.105908692</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6">
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>0</v>
       </c>
@@ -5942,17 +3461,8 @@
       <c r="C276">
         <v>2.8901674023973999E-2</v>
       </c>
-      <c r="D276">
-        <v>3.0881001019999998</v>
-      </c>
-      <c r="E276">
-        <v>8.1303838000000003E-2</v>
-      </c>
-      <c r="F276">
-        <v>-0.106105534</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6">
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>0</v>
       </c>
@@ -5962,17 +3472,8 @@
       <c r="C277">
         <v>2.4852024355139099E-2</v>
       </c>
-      <c r="D277">
-        <v>3.0882340770000001</v>
-      </c>
-      <c r="E277">
-        <v>8.0660228E-2</v>
-      </c>
-      <c r="F277">
-        <v>-0.106312171</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6">
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>0</v>
       </c>
@@ -5982,17 +3483,8 @@
       <c r="C278">
         <v>2.1056075378014801E-2</v>
       </c>
-      <c r="D278">
-        <v>3.0883964270000002</v>
-      </c>
-      <c r="E278">
-        <v>7.9967055999999995E-2</v>
-      </c>
-      <c r="F278">
-        <v>-0.106528161</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6">
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>0</v>
       </c>
@@ -6002,17 +3494,8 @@
       <c r="C279">
         <v>1.76220961329999E-2</v>
       </c>
-      <c r="D279">
-        <v>3.088590392</v>
-      </c>
-      <c r="E279">
-        <v>7.9238897000000003E-2</v>
-      </c>
-      <c r="F279">
-        <v>-0.106752162</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6">
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>0</v>
       </c>
@@ -6022,17 +3505,8 @@
       <c r="C280">
         <v>1.44733836265816E-2</v>
       </c>
-      <c r="D280">
-        <v>3.0888169479999998</v>
-      </c>
-      <c r="E280">
-        <v>7.8491291000000005E-2</v>
-      </c>
-      <c r="F280">
-        <v>-0.10698179200000001</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6">
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>0</v>
       </c>
@@ -6042,17 +3516,8 @@
       <c r="C281">
         <v>1.15780376162921E-2</v>
       </c>
-      <c r="D281">
-        <v>3.0890747250000001</v>
-      </c>
-      <c r="E281">
-        <v>7.7740305999999995E-2</v>
-      </c>
-      <c r="F281">
-        <v>-0.10721354600000001</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6">
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>0</v>
       </c>
@@ -6062,17 +3527,8 @@
       <c r="C282">
         <v>8.9340574824513606E-3</v>
       </c>
-      <c r="D282">
-        <v>3.089360106</v>
-      </c>
-      <c r="E282">
-        <v>7.7002175000000006E-2</v>
-      </c>
-      <c r="F282">
-        <v>-0.107442811</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6">
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>0</v>
       </c>
@@ -6082,17 +3538,8 @@
       <c r="C283">
         <v>6.6500695958281704E-3</v>
       </c>
-      <c r="D283">
-        <v>3.0896675149999999</v>
-      </c>
-      <c r="E283">
-        <v>7.6293007999999995E-2</v>
-      </c>
-      <c r="F283">
-        <v>-0.107663961</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6">
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>0</v>
       </c>
@@ -6102,17 +3549,8 @@
       <c r="C284">
         <v>4.6143987078278098E-3</v>
       </c>
-      <c r="D284">
-        <v>3.0899898299999999</v>
-      </c>
-      <c r="E284">
-        <v>7.5628529999999999E-2</v>
-      </c>
-      <c r="F284">
-        <v>-0.10787055</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6">
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>0</v>
       </c>
@@ -6122,17 +3560,8 @@
       <c r="C285">
         <v>2.8067496614070102E-3</v>
       </c>
-      <c r="D285">
-        <v>3.090318924</v>
-      </c>
-      <c r="E285">
-        <v>7.5023796000000004E-2</v>
-      </c>
-      <c r="F285">
-        <v>-0.108055569</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6">
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>0</v>
       </c>
@@ -6142,1359 +3571,1349 @@
       <c r="C286">
         <v>1.22116672368355E-3</v>
       </c>
-      <c r="D286">
-        <v>3.0906462530000001</v>
-      </c>
-      <c r="E286">
-        <v>7.4492848E-2</v>
-      </c>
-      <c r="F286">
-        <v>-0.10821177</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6">
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="2"/>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="2"/>
     </row>
-    <row r="289" spans="1:1">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="2"/>
     </row>
-    <row r="290" spans="1:1">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="2"/>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="2"/>
     </row>
-    <row r="292" spans="1:1">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="2"/>
     </row>
-    <row r="293" spans="1:1">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="2"/>
     </row>
-    <row r="294" spans="1:1">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" s="2"/>
     </row>
-    <row r="295" spans="1:1">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="2"/>
     </row>
-    <row r="296" spans="1:1">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" s="2"/>
     </row>
-    <row r="297" spans="1:1">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="2"/>
     </row>
-    <row r="298" spans="1:1">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" s="2"/>
     </row>
-    <row r="299" spans="1:1">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" s="2"/>
     </row>
-    <row r="300" spans="1:1">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="2"/>
     </row>
-    <row r="301" spans="1:1">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="2"/>
     </row>
-    <row r="302" spans="1:1">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" s="2"/>
     </row>
-    <row r="303" spans="1:1">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" s="2"/>
     </row>
-    <row r="304" spans="1:1">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" s="2"/>
     </row>
-    <row r="305" spans="1:1">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="2"/>
     </row>
-    <row r="306" spans="1:1">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" s="2"/>
     </row>
-    <row r="307" spans="1:1">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" s="2"/>
     </row>
-    <row r="308" spans="1:1">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="2"/>
     </row>
-    <row r="309" spans="1:1">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="2"/>
     </row>
-    <row r="310" spans="1:1">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="2"/>
     </row>
-    <row r="311" spans="1:1">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" s="2"/>
     </row>
-    <row r="312" spans="1:1">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="2"/>
     </row>
-    <row r="313" spans="1:1">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" s="2"/>
     </row>
-    <row r="314" spans="1:1">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="2"/>
     </row>
-    <row r="315" spans="1:1">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="2"/>
     </row>
-    <row r="316" spans="1:1">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="2"/>
     </row>
-    <row r="317" spans="1:1">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" s="2"/>
     </row>
-    <row r="318" spans="1:1">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" s="2"/>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" s="2"/>
     </row>
-    <row r="320" spans="1:1">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" s="2"/>
     </row>
-    <row r="321" spans="1:1">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" s="2"/>
     </row>
-    <row r="322" spans="1:1">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" s="2"/>
     </row>
-    <row r="323" spans="1:1">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" s="2"/>
     </row>
-    <row r="324" spans="1:1">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" s="2"/>
     </row>
-    <row r="325" spans="1:1">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" s="2"/>
     </row>
-    <row r="326" spans="1:1">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" s="2"/>
     </row>
-    <row r="327" spans="1:1">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" s="2"/>
     </row>
-    <row r="328" spans="1:1">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" s="2"/>
     </row>
-    <row r="329" spans="1:1">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="2"/>
     </row>
-    <row r="330" spans="1:1">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="2"/>
     </row>
-    <row r="331" spans="1:1">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" s="2"/>
     </row>
-    <row r="332" spans="1:1">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" s="2"/>
     </row>
-    <row r="333" spans="1:1">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" s="2"/>
     </row>
-    <row r="334" spans="1:1">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" s="2"/>
     </row>
-    <row r="335" spans="1:1">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" s="2"/>
     </row>
-    <row r="336" spans="1:1">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" s="2"/>
     </row>
-    <row r="337" spans="1:1">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" s="2"/>
     </row>
-    <row r="338" spans="1:1">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" s="2"/>
     </row>
-    <row r="339" spans="1:1">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" s="2"/>
     </row>
-    <row r="340" spans="1:1">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" s="2"/>
     </row>
-    <row r="341" spans="1:1">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" s="2"/>
     </row>
-    <row r="342" spans="1:1">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" s="2"/>
     </row>
-    <row r="343" spans="1:1">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" s="2"/>
     </row>
-    <row r="344" spans="1:1">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" s="2"/>
     </row>
-    <row r="345" spans="1:1">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" s="2"/>
     </row>
-    <row r="346" spans="1:1">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" s="2"/>
     </row>
-    <row r="347" spans="1:1">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" s="2"/>
     </row>
-    <row r="348" spans="1:1">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" s="2"/>
     </row>
-    <row r="349" spans="1:1">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" s="2"/>
     </row>
-    <row r="350" spans="1:1">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" s="2"/>
     </row>
-    <row r="351" spans="1:1">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" s="2"/>
     </row>
-    <row r="352" spans="1:1">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" s="2"/>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" s="2"/>
     </row>
-    <row r="354" spans="1:2">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" s="2"/>
     </row>
-    <row r="355" spans="1:2">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" s="2"/>
     </row>
-    <row r="356" spans="1:2">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" s="2"/>
     </row>
-    <row r="357" spans="1:2">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" s="2"/>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" s="2"/>
     </row>
-    <row r="359" spans="1:2">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" s="2"/>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" s="2"/>
     </row>
-    <row r="361" spans="1:2">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" s="2"/>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" s="2"/>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" s="2"/>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" s="2"/>
     </row>
-    <row r="365" spans="1:2">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" s="2"/>
-      <c r="B365" s="4"/>
-    </row>
-    <row r="366" spans="1:2">
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" s="2"/>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" s="2"/>
     </row>
-    <row r="368" spans="1:2">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" s="2"/>
     </row>
-    <row r="369" spans="1:1">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" s="2"/>
     </row>
-    <row r="370" spans="1:1">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" s="2"/>
     </row>
-    <row r="371" spans="1:1">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" s="2"/>
     </row>
-    <row r="372" spans="1:1">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" s="2"/>
     </row>
-    <row r="373" spans="1:1">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" s="2"/>
     </row>
-    <row r="374" spans="1:1">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" s="2"/>
     </row>
-    <row r="375" spans="1:1">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" s="2"/>
     </row>
-    <row r="376" spans="1:1">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" s="2"/>
     </row>
-    <row r="377" spans="1:1">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" s="2"/>
     </row>
-    <row r="378" spans="1:1">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" s="2"/>
     </row>
-    <row r="379" spans="1:1">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" s="2"/>
     </row>
-    <row r="380" spans="1:1">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" s="2"/>
     </row>
-    <row r="381" spans="1:1">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" s="2"/>
     </row>
-    <row r="382" spans="1:1">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" s="2"/>
     </row>
-    <row r="383" spans="1:1">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" s="2"/>
     </row>
-    <row r="384" spans="1:1">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" s="2"/>
     </row>
-    <row r="385" spans="1:1">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" s="2"/>
     </row>
-    <row r="386" spans="1:1">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" s="2"/>
     </row>
-    <row r="387" spans="1:1">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" s="2"/>
     </row>
-    <row r="388" spans="1:1">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" s="2"/>
     </row>
-    <row r="389" spans="1:1">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" s="2"/>
     </row>
-    <row r="390" spans="1:1">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" s="2"/>
     </row>
-    <row r="391" spans="1:1">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" s="2"/>
     </row>
-    <row r="392" spans="1:1">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" s="2"/>
     </row>
-    <row r="393" spans="1:1">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="2"/>
     </row>
-    <row r="394" spans="1:1">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" s="2"/>
     </row>
-    <row r="395" spans="1:1">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" s="2"/>
     </row>
-    <row r="396" spans="1:1">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" s="2"/>
     </row>
-    <row r="397" spans="1:1">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" s="2"/>
     </row>
-    <row r="398" spans="1:1">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" s="2"/>
     </row>
-    <row r="399" spans="1:1">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" s="2"/>
     </row>
-    <row r="400" spans="1:1">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" s="2"/>
     </row>
-    <row r="401" spans="1:1">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" s="2"/>
     </row>
-    <row r="402" spans="1:1">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" s="2"/>
     </row>
-    <row r="403" spans="1:1">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" s="2"/>
     </row>
-    <row r="404" spans="1:1">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" s="2"/>
     </row>
-    <row r="405" spans="1:1">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" s="2"/>
     </row>
-    <row r="406" spans="1:1">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" s="2"/>
     </row>
-    <row r="407" spans="1:1">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" s="2"/>
     </row>
-    <row r="408" spans="1:1">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" s="2"/>
     </row>
-    <row r="409" spans="1:1">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" s="2"/>
     </row>
-    <row r="410" spans="1:1">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" s="2"/>
     </row>
-    <row r="411" spans="1:1">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" s="2"/>
     </row>
-    <row r="412" spans="1:1">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" s="2"/>
     </row>
-    <row r="413" spans="1:1">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" s="2"/>
     </row>
-    <row r="414" spans="1:1">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" s="2"/>
     </row>
-    <row r="415" spans="1:1">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" s="2"/>
     </row>
-    <row r="416" spans="1:1">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" s="2"/>
     </row>
-    <row r="417" spans="1:1">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" s="2"/>
     </row>
-    <row r="418" spans="1:1">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" s="2"/>
     </row>
-    <row r="419" spans="1:1">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" s="2"/>
     </row>
-    <row r="420" spans="1:1">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" s="2"/>
     </row>
-    <row r="421" spans="1:1">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" s="2"/>
     </row>
-    <row r="422" spans="1:1">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" s="2"/>
     </row>
-    <row r="423" spans="1:1">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" s="2"/>
     </row>
-    <row r="424" spans="1:1">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" s="2"/>
     </row>
-    <row r="425" spans="1:1">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" s="2"/>
     </row>
-    <row r="426" spans="1:1">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" s="2"/>
     </row>
-    <row r="427" spans="1:1">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" s="2"/>
     </row>
-    <row r="428" spans="1:1">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" s="2"/>
     </row>
-    <row r="429" spans="1:1">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" s="2"/>
     </row>
-    <row r="430" spans="1:1">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" s="2"/>
     </row>
-    <row r="431" spans="1:1">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" s="2"/>
     </row>
-    <row r="432" spans="1:1">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" s="2"/>
     </row>
-    <row r="433" spans="1:1">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" s="2"/>
     </row>
-    <row r="434" spans="1:1">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" s="2"/>
     </row>
-    <row r="435" spans="1:1">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" s="2"/>
     </row>
-    <row r="436" spans="1:1">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" s="2"/>
     </row>
-    <row r="437" spans="1:1">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" s="2"/>
     </row>
-    <row r="438" spans="1:1">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" s="2"/>
     </row>
-    <row r="439" spans="1:1">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" s="2"/>
     </row>
-    <row r="440" spans="1:1">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" s="2"/>
     </row>
-    <row r="441" spans="1:1">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" s="2"/>
     </row>
-    <row r="442" spans="1:1">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" s="2"/>
     </row>
-    <row r="443" spans="1:1">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" s="2"/>
     </row>
-    <row r="444" spans="1:1">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" s="2"/>
     </row>
-    <row r="445" spans="1:1">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" s="2"/>
     </row>
-    <row r="446" spans="1:1">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" s="2"/>
     </row>
-    <row r="447" spans="1:1">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" s="2"/>
     </row>
-    <row r="448" spans="1:1">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" s="2"/>
     </row>
-    <row r="449" spans="1:1">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" s="2"/>
     </row>
-    <row r="450" spans="1:1">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" s="2"/>
     </row>
-    <row r="451" spans="1:1">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" s="2"/>
     </row>
-    <row r="452" spans="1:1">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" s="2"/>
     </row>
-    <row r="453" spans="1:1">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" s="2"/>
     </row>
-    <row r="454" spans="1:1">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" s="2"/>
     </row>
-    <row r="455" spans="1:1">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" s="2"/>
     </row>
-    <row r="456" spans="1:1">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" s="2"/>
     </row>
-    <row r="457" spans="1:1">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" s="2"/>
     </row>
-    <row r="458" spans="1:1">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" s="2"/>
     </row>
-    <row r="459" spans="1:1">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" s="2"/>
     </row>
-    <row r="460" spans="1:1">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" s="2"/>
     </row>
-    <row r="461" spans="1:1">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" s="2"/>
     </row>
-    <row r="462" spans="1:1">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" s="2"/>
     </row>
-    <row r="463" spans="1:1">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" s="2"/>
     </row>
-    <row r="464" spans="1:1">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" s="2"/>
     </row>
-    <row r="465" spans="1:1">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" s="2"/>
     </row>
-    <row r="466" spans="1:1">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" s="2"/>
     </row>
-    <row r="467" spans="1:1">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" s="2"/>
     </row>
-    <row r="468" spans="1:1">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" s="2"/>
     </row>
-    <row r="469" spans="1:1">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" s="2"/>
     </row>
-    <row r="470" spans="1:1">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" s="2"/>
     </row>
-    <row r="471" spans="1:1">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" s="2"/>
     </row>
-    <row r="472" spans="1:1">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" s="2"/>
     </row>
-    <row r="473" spans="1:1">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" s="2"/>
     </row>
-    <row r="474" spans="1:1">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" s="2"/>
     </row>
-    <row r="475" spans="1:1">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" s="2"/>
     </row>
-    <row r="476" spans="1:1">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" s="2"/>
     </row>
-    <row r="477" spans="1:1">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" s="2"/>
     </row>
-    <row r="478" spans="1:1">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" s="2"/>
     </row>
-    <row r="479" spans="1:1">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" s="2"/>
     </row>
-    <row r="480" spans="1:1">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" s="2"/>
     </row>
-    <row r="481" spans="1:1">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" s="2"/>
     </row>
-    <row r="482" spans="1:1">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" s="2"/>
     </row>
-    <row r="483" spans="1:1">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" s="2"/>
     </row>
-    <row r="484" spans="1:1">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" s="2"/>
     </row>
-    <row r="485" spans="1:1">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" s="2"/>
     </row>
-    <row r="486" spans="1:1">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" s="2"/>
     </row>
-    <row r="487" spans="1:1">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" s="2"/>
     </row>
-    <row r="488" spans="1:1">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" s="2"/>
     </row>
-    <row r="489" spans="1:1">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" s="2"/>
     </row>
-    <row r="490" spans="1:1">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" s="2"/>
     </row>
-    <row r="491" spans="1:1">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" s="2"/>
     </row>
-    <row r="492" spans="1:1">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" s="2"/>
     </row>
-    <row r="493" spans="1:1">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" s="2"/>
     </row>
-    <row r="494" spans="1:1">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" s="2"/>
     </row>
-    <row r="495" spans="1:1">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" s="2"/>
     </row>
-    <row r="496" spans="1:1">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" s="2"/>
     </row>
-    <row r="497" spans="1:1">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" s="2"/>
     </row>
-    <row r="498" spans="1:1">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" s="2"/>
     </row>
-    <row r="499" spans="1:1">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" s="2"/>
     </row>
-    <row r="500" spans="1:1">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" s="2"/>
     </row>
-    <row r="501" spans="1:1">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" s="2"/>
     </row>
-    <row r="502" spans="1:1">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" s="2"/>
     </row>
-    <row r="503" spans="1:1">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" s="2"/>
     </row>
-    <row r="504" spans="1:1">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" s="2"/>
     </row>
-    <row r="505" spans="1:1">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" s="2"/>
     </row>
-    <row r="506" spans="1:1">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" s="2"/>
     </row>
-    <row r="507" spans="1:1">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" s="2"/>
     </row>
-    <row r="508" spans="1:1">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508" s="2"/>
     </row>
-    <row r="509" spans="1:1">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" s="2"/>
     </row>
-    <row r="510" spans="1:1">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510" s="2"/>
     </row>
-    <row r="511" spans="1:1">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" s="2"/>
     </row>
-    <row r="512" spans="1:1">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A512" s="2"/>
     </row>
-    <row r="513" spans="1:1">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A513" s="2"/>
     </row>
-    <row r="514" spans="1:1">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" s="2"/>
     </row>
-    <row r="515" spans="1:1">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515" s="2"/>
     </row>
-    <row r="516" spans="1:1">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516" s="2"/>
     </row>
-    <row r="517" spans="1:1">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" s="2"/>
     </row>
-    <row r="518" spans="1:1">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A518" s="2"/>
     </row>
-    <row r="519" spans="1:1">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A519" s="2"/>
     </row>
-    <row r="520" spans="1:1">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520" s="2"/>
     </row>
-    <row r="521" spans="1:1">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A521" s="2"/>
     </row>
-    <row r="522" spans="1:1">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A522" s="2"/>
     </row>
-    <row r="523" spans="1:1">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A523" s="2"/>
     </row>
-    <row r="524" spans="1:1">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A524" s="2"/>
     </row>
-    <row r="525" spans="1:1">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" s="2"/>
     </row>
-    <row r="526" spans="1:1">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A526" s="2"/>
     </row>
-    <row r="527" spans="1:1">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A527" s="2"/>
     </row>
-    <row r="528" spans="1:1">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A528" s="2"/>
     </row>
-    <row r="529" spans="1:1">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A529" s="2"/>
     </row>
-    <row r="530" spans="1:1">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A530" s="2"/>
     </row>
-    <row r="531" spans="1:1">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A531" s="2"/>
     </row>
-    <row r="532" spans="1:1">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A532" s="2"/>
     </row>
-    <row r="533" spans="1:1">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A533" s="2"/>
     </row>
-    <row r="534" spans="1:1">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A534" s="2"/>
     </row>
-    <row r="535" spans="1:1">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A535" s="2"/>
     </row>
-    <row r="536" spans="1:1">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536" s="2"/>
     </row>
-    <row r="537" spans="1:1">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537" s="2"/>
     </row>
-    <row r="538" spans="1:1">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A538" s="2"/>
     </row>
-    <row r="539" spans="1:1">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539" s="2"/>
     </row>
-    <row r="540" spans="1:1">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A540" s="2"/>
     </row>
-    <row r="541" spans="1:1">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A541" s="2"/>
     </row>
-    <row r="542" spans="1:1">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A542" s="2"/>
     </row>
-    <row r="543" spans="1:1">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A543" s="2"/>
     </row>
-    <row r="544" spans="1:1">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A544" s="2"/>
     </row>
-    <row r="545" spans="1:1">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A545" s="2"/>
     </row>
-    <row r="546" spans="1:1">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A546" s="2"/>
     </row>
-    <row r="547" spans="1:1">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A547" s="2"/>
     </row>
-    <row r="548" spans="1:1">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A548" s="2"/>
     </row>
-    <row r="549" spans="1:1">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A549" s="2"/>
     </row>
-    <row r="550" spans="1:1">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A550" s="2"/>
     </row>
-    <row r="551" spans="1:1">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A551" s="2"/>
     </row>
-    <row r="552" spans="1:1">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A552" s="2"/>
     </row>
-    <row r="553" spans="1:1">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A553" s="2"/>
     </row>
-    <row r="554" spans="1:1">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A554" s="2"/>
     </row>
-    <row r="555" spans="1:1">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A555" s="2"/>
     </row>
-    <row r="556" spans="1:1">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A556" s="2"/>
     </row>
-    <row r="557" spans="1:1">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A557" s="2"/>
     </row>
-    <row r="558" spans="1:1">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A558" s="2"/>
     </row>
-    <row r="559" spans="1:1">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A559" s="2"/>
     </row>
-    <row r="560" spans="1:1">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A560" s="2"/>
     </row>
-    <row r="561" spans="1:1">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A561" s="2"/>
     </row>
-    <row r="562" spans="1:1">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A562" s="2"/>
     </row>
-    <row r="563" spans="1:1">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A563" s="2"/>
     </row>
-    <row r="564" spans="1:1">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A564" s="2"/>
     </row>
-    <row r="565" spans="1:1">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A565" s="2"/>
     </row>
-    <row r="566" spans="1:1">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A566" s="2"/>
     </row>
-    <row r="567" spans="1:1">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A567" s="2"/>
     </row>
-    <row r="568" spans="1:1">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A568" s="2"/>
     </row>
-    <row r="569" spans="1:1">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A569" s="2"/>
     </row>
-    <row r="570" spans="1:1">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A570" s="2"/>
     </row>
-    <row r="571" spans="1:1">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A571" s="2"/>
     </row>
-    <row r="572" spans="1:1">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A572" s="2"/>
     </row>
-    <row r="573" spans="1:1">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A573" s="2"/>
     </row>
-    <row r="574" spans="1:1">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A574" s="2"/>
     </row>
-    <row r="575" spans="1:1">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A575" s="2"/>
     </row>
-    <row r="576" spans="1:1">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A576" s="2"/>
     </row>
-    <row r="577" spans="1:1">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A577" s="2"/>
     </row>
-    <row r="578" spans="1:1">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A578" s="2"/>
     </row>
-    <row r="579" spans="1:1">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A579" s="2"/>
     </row>
-    <row r="580" spans="1:1">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A580" s="2"/>
     </row>
-    <row r="581" spans="1:1">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A581" s="2"/>
     </row>
-    <row r="582" spans="1:1">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A582" s="2"/>
     </row>
-    <row r="583" spans="1:1">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A583" s="2"/>
     </row>
-    <row r="584" spans="1:1">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A584" s="2"/>
     </row>
-    <row r="585" spans="1:1">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A585" s="2"/>
     </row>
-    <row r="586" spans="1:1">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A586" s="2"/>
     </row>
-    <row r="587" spans="1:1">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A587" s="2"/>
     </row>
-    <row r="588" spans="1:1">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A588" s="2"/>
     </row>
-    <row r="589" spans="1:1">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A589" s="2"/>
     </row>
-    <row r="590" spans="1:1">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A590" s="2"/>
     </row>
-    <row r="591" spans="1:1">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A591" s="2"/>
     </row>
-    <row r="592" spans="1:1">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A592" s="2"/>
     </row>
-    <row r="593" spans="1:1">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A593" s="2"/>
     </row>
-    <row r="594" spans="1:1">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A594" s="2"/>
     </row>
-    <row r="595" spans="1:1">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A595" s="2"/>
     </row>
-    <row r="596" spans="1:1">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A596" s="2"/>
     </row>
-    <row r="597" spans="1:1">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A597" s="2"/>
     </row>
-    <row r="598" spans="1:1">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A598" s="2"/>
     </row>
-    <row r="599" spans="1:1">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A599" s="2"/>
     </row>
-    <row r="600" spans="1:1">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A600" s="2"/>
     </row>
-    <row r="601" spans="1:1">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A601" s="2"/>
     </row>
-    <row r="602" spans="1:1">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A602" s="2"/>
     </row>
-    <row r="603" spans="1:1">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A603" s="2"/>
     </row>
-    <row r="604" spans="1:1">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A604" s="2"/>
     </row>
-    <row r="605" spans="1:1">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A605" s="2"/>
     </row>
-    <row r="606" spans="1:1">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A606" s="2"/>
     </row>
-    <row r="607" spans="1:1">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A607" s="2"/>
     </row>
-    <row r="608" spans="1:1">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A608" s="2"/>
     </row>
-    <row r="609" spans="1:1">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A609" s="2"/>
     </row>
-    <row r="610" spans="1:1">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A610" s="2"/>
     </row>
-    <row r="611" spans="1:1">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A611" s="2"/>
     </row>
-    <row r="612" spans="1:1">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A612" s="2"/>
     </row>
-    <row r="613" spans="1:1">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A613" s="2"/>
     </row>
-    <row r="614" spans="1:1">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A614" s="2"/>
     </row>
-    <row r="615" spans="1:1">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A615" s="2"/>
     </row>
-    <row r="616" spans="1:1">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A616" s="2"/>
     </row>
-    <row r="617" spans="1:1">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A617" s="2"/>
     </row>
-    <row r="618" spans="1:1">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A618" s="2"/>
     </row>
-    <row r="619" spans="1:1">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A619" s="2"/>
     </row>
-    <row r="620" spans="1:1">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A620" s="2"/>
     </row>
-    <row r="621" spans="1:1">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A621" s="2"/>
     </row>
-    <row r="622" spans="1:1">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A622" s="2"/>
     </row>
-    <row r="623" spans="1:1">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A623" s="2"/>
     </row>
-    <row r="624" spans="1:1">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A624" s="2"/>
     </row>
-    <row r="625" spans="1:1">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A625" s="2"/>
     </row>
-    <row r="626" spans="1:1">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A626" s="2"/>
     </row>
-    <row r="627" spans="1:1">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A627" s="2"/>
     </row>
-    <row r="628" spans="1:1">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A628" s="2"/>
     </row>
-    <row r="629" spans="1:1">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A629" s="2"/>
     </row>
-    <row r="630" spans="1:1">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A630" s="2"/>
     </row>
-    <row r="631" spans="1:1">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A631" s="2"/>
     </row>
-    <row r="632" spans="1:1">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A632" s="2"/>
     </row>
-    <row r="633" spans="1:1">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A633" s="2"/>
     </row>
-    <row r="634" spans="1:1">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A634" s="2"/>
     </row>
-    <row r="635" spans="1:1">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A635" s="2"/>
     </row>
-    <row r="636" spans="1:1">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A636" s="2"/>
     </row>
-    <row r="637" spans="1:1">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A637" s="2"/>
     </row>
-    <row r="638" spans="1:1">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A638" s="2"/>
     </row>
-    <row r="639" spans="1:1">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A639" s="2"/>
     </row>
-    <row r="640" spans="1:1">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A640" s="2"/>
     </row>
-    <row r="641" spans="1:1">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A641" s="2"/>
     </row>
-    <row r="642" spans="1:1">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A642" s="2"/>
     </row>
-    <row r="643" spans="1:1">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A643" s="2"/>
     </row>
-    <row r="644" spans="1:1">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A644" s="2"/>
     </row>
-    <row r="645" spans="1:1">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A645" s="2"/>
     </row>
-    <row r="646" spans="1:1">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A646" s="2"/>
     </row>
-    <row r="647" spans="1:1">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A647" s="2"/>
     </row>
-    <row r="648" spans="1:1">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A648" s="2"/>
     </row>
-    <row r="649" spans="1:1">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A649" s="2"/>
     </row>
-    <row r="650" spans="1:1">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A650" s="2"/>
     </row>
-    <row r="651" spans="1:1">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A651" s="2"/>
     </row>
-    <row r="652" spans="1:1">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A652" s="2"/>
     </row>
-    <row r="653" spans="1:1">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A653" s="2"/>
     </row>
-    <row r="654" spans="1:1">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A654" s="2"/>
     </row>
-    <row r="655" spans="1:1">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A655" s="2"/>
     </row>
-    <row r="656" spans="1:1">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A656" s="2"/>
     </row>
-    <row r="657" spans="1:1">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A657" s="2"/>
     </row>
-    <row r="658" spans="1:1">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A658" s="2"/>
     </row>
-    <row r="659" spans="1:1">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A659" s="2"/>
     </row>
-    <row r="660" spans="1:1">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A660" s="2"/>
     </row>
-    <row r="661" spans="1:1">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A661" s="2"/>
     </row>
-    <row r="662" spans="1:1">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A662" s="2"/>
     </row>
-    <row r="663" spans="1:1">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A663" s="2"/>
     </row>
-    <row r="664" spans="1:1">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A664" s="2"/>
     </row>
-    <row r="665" spans="1:1">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A665" s="2"/>
     </row>
-    <row r="666" spans="1:1">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A666" s="2"/>
     </row>
-    <row r="667" spans="1:1">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A667" s="2"/>
     </row>
-    <row r="668" spans="1:1">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A668" s="2"/>
     </row>
-    <row r="669" spans="1:1">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A669" s="2"/>
     </row>
-    <row r="670" spans="1:1">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A670" s="2"/>
     </row>
-    <row r="671" spans="1:1">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A671" s="2"/>
     </row>
-    <row r="672" spans="1:1">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A672" s="2"/>
     </row>
-    <row r="673" spans="1:1">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A673" s="2"/>
     </row>
-    <row r="674" spans="1:1">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A674" s="2"/>
     </row>
-    <row r="675" spans="1:1">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A675" s="2"/>
     </row>
-    <row r="676" spans="1:1">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A676" s="2"/>
     </row>
-    <row r="677" spans="1:1">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A677" s="2"/>
     </row>
-    <row r="678" spans="1:1">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A678" s="2"/>
     </row>
-    <row r="679" spans="1:1">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A679" s="2"/>
     </row>
-    <row r="680" spans="1:1">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A680" s="2"/>
     </row>
-    <row r="681" spans="1:1">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A681" s="2"/>
     </row>
-    <row r="682" spans="1:1">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A682" s="2"/>
     </row>
-    <row r="683" spans="1:1">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A683" s="2"/>
     </row>
-    <row r="684" spans="1:1">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A684" s="2"/>
     </row>
-    <row r="685" spans="1:1">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A685" s="2"/>
     </row>
-    <row r="686" spans="1:1">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A686" s="2"/>
     </row>
-    <row r="687" spans="1:1">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A687" s="2"/>
     </row>
-    <row r="688" spans="1:1">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A688" s="2"/>
     </row>
-    <row r="689" spans="1:1">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A689" s="2"/>
     </row>
-    <row r="690" spans="1:1">
+    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A690" s="2"/>
     </row>
-    <row r="691" spans="1:1">
+    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A691" s="2"/>
     </row>
-    <row r="692" spans="1:1">
+    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A692" s="2"/>
     </row>
-    <row r="693" spans="1:1">
+    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A693" s="2"/>
     </row>
-    <row r="694" spans="1:1">
+    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A694" s="2"/>
     </row>
-    <row r="695" spans="1:1">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A695" s="2"/>
     </row>
-    <row r="696" spans="1:1">
+    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A696" s="2"/>
     </row>
-    <row r="697" spans="1:1">
+    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A697" s="2"/>
     </row>
-    <row r="698" spans="1:1">
+    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A698" s="2"/>
     </row>
-    <row r="699" spans="1:1">
+    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A699" s="2"/>
     </row>
-    <row r="700" spans="1:1">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A700" s="2"/>
     </row>
-    <row r="701" spans="1:1">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A701" s="2"/>
     </row>
-    <row r="702" spans="1:1">
+    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A702" s="2"/>
     </row>
-    <row r="703" spans="1:1">
+    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A703" s="2"/>
     </row>
-    <row r="704" spans="1:1">
+    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A704" s="2"/>
     </row>
-    <row r="705" spans="1:1">
+    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A705" s="2"/>
     </row>
-    <row r="706" spans="1:1">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A706" s="2"/>
     </row>
-    <row r="707" spans="1:1">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A707" s="2"/>
     </row>
-    <row r="708" spans="1:1">
+    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A708" s="2"/>
     </row>
-    <row r="709" spans="1:1">
+    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A709" s="2"/>
     </row>
-    <row r="710" spans="1:1">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A710" s="2"/>
     </row>
-    <row r="711" spans="1:1">
+    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A711" s="2"/>
     </row>
-    <row r="712" spans="1:1">
+    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A712" s="2"/>
     </row>
-    <row r="713" spans="1:1">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A713" s="2"/>
     </row>
-    <row r="714" spans="1:1">
+    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A714" s="2"/>
     </row>
-    <row r="715" spans="1:1">
+    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A715" s="2"/>
     </row>
-    <row r="716" spans="1:1">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A716" s="2"/>
     </row>
-    <row r="717" spans="1:1">
+    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A717" s="2"/>
     </row>
-    <row r="718" spans="1:1">
+    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A718" s="2"/>
     </row>
-    <row r="719" spans="1:1">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A719" s="2"/>
     </row>
-    <row r="720" spans="1:1">
+    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A720" s="2"/>
     </row>
-    <row r="721" spans="1:1">
+    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A721" s="2"/>
     </row>
-    <row r="722" spans="1:1">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A722" s="2"/>
     </row>
-    <row r="723" spans="1:1">
+    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A723" s="2"/>
     </row>
-    <row r="724" spans="1:1">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A724" s="2"/>
     </row>
-    <row r="725" spans="1:1">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A725" s="2"/>
     </row>
-    <row r="726" spans="1:1">
+    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A726" s="2"/>
     </row>
-    <row r="727" spans="1:1">
+    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A727" s="2"/>
     </row>
-    <row r="728" spans="1:1">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A728" s="2"/>
     </row>
-    <row r="729" spans="1:1">
+    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A729" s="2"/>
     </row>
-    <row r="730" spans="1:1">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A730" s="2"/>
     </row>
-    <row r="731" spans="1:1">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A731" s="2"/>
     </row>
-    <row r="732" spans="1:1">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A732" s="2"/>
     </row>
-    <row r="733" spans="1:1">
+    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A733" s="2"/>
     </row>
-    <row r="734" spans="1:1">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A734" s="2"/>
     </row>
   </sheetData>
